--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A646148-2592-478F-9D88-900AEC3E80B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7CF37B-CA94-4C22-AFC6-86F86BC78AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="10680" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="196">
   <si>
     <t>译名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -685,6 +685,202 @@
   </si>
   <si>
     <t>魔域帝国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血鬼：避世血族 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一部的名字后面没有Bloodlines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kriegsspiel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德语，不翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Little Wars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小战争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chainmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dungeons &amp; Dragons (D&amp;D)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙与地下城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mage: The Ascension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师：超凡入圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire: The Masquerade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意和第二部名字的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telepath Tactics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传心策略（又可译作《心灵感应战》）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True Messiah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真正的弥赛亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spasim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太空模拟战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m119h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oubliette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下密牢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Dungeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地牢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩瑞亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maze War</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷宫战争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mordor: Depths of Dejenol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔多：丹杰诺儿之幽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demise: Rise of the Ku’tan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崩溃边缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字翻译取自《大众软件》2000 年第 16 期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traveller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Star Wars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星球大战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Futurewar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来战争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁灭战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿凡达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1036,18 +1232,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="65.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1111,538 +1307,743 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>124</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>97</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>102</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>78</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>110</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B35" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>95</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>93</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B38" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>80</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>25</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>130</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B48" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="49" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>65</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B49" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>172</v>
+      </c>
+      <c r="C56" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>188</v>
+      </c>
+      <c r="B70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>99</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B86" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="B88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>84</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B89" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>114</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B90" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>21</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B91" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>128</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B92" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>72</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B93" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>126</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B94" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>139</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B95" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>145</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B96" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C73">
-    <sortCondition ref="A2:A73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
+    <sortCondition ref="A2:A96"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Nutstore\.nutstore_bGlnaHRuaW5nY2hyaXM4NkBpY2xvdWQuY29t\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7CF37B-CA94-4C22-AFC6-86F86BC78AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AC8B6D-89C2-40B5-8B40-DBD80DB62B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="10680" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="198">
   <si>
     <t>译名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,6 +881,14 @@
   </si>
   <si>
     <t>阿凡达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘古域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ancient Domains of Mystery (ADOM)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1232,21 +1240,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1257,7 +1265,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1265,785 +1273,793 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>120</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>82</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>194</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>141</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>153</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>143</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>132</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>124</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>183</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>184</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>176</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>176</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>192</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>97</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>155</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>102</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>165</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>78</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>190</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>110</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>95</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>30</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>93</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>149</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>149</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>80</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>151</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>169</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>169</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>157</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>179</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>25</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>130</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>65</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>86</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>181</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>177</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>27</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>118</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>171</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>172</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>122</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>8</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>36</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>134</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>49</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>76</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>32</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>90</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>43</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>136</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>136</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>137</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>167</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>88</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>188</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>106</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>68</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>104</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>112</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>161</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>59</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>108</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>174</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>116</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>15</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>186</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>163</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>19</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>74</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>99</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>159</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>64</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>63</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>147</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>84</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>114</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>21</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>128</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>72</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>126</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>139</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>145</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
-    <sortCondition ref="A2:A96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C97">
+    <sortCondition ref="A2:A97"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Nutstore\.nutstore_bGlnaHRuaW5nY2hyaXM4NkBpY2xvdWQuY29t\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AC8B6D-89C2-40B5-8B40-DBD80DB62B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA14B3C-3722-4870-B0F6-35ADF2EE32D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,10 +524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stone Soup: Dungeon Crawl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地城探宝：石头汤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -889,6 +885,10 @@
   </si>
   <si>
     <t>Ancient Domains of Mystery (ADOM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dungeon Crawl: Stone Soup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1244,7 +1244,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1275,10 +1275,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,10 +1299,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
         <v>120</v>
-      </c>
-      <c r="B6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1323,10 +1323,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" t="s">
         <v>194</v>
-      </c>
-      <c r="B9" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1347,18 +1347,18 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
         <v>141</v>
-      </c>
-      <c r="B12" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1371,10 +1371,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" t="s">
         <v>143</v>
-      </c>
-      <c r="B15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1395,29 +1395,29 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
         <v>132</v>
-      </c>
-      <c r="B18" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
         <v>124</v>
-      </c>
-      <c r="B19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s">
         <v>183</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>184</v>
-      </c>
-      <c r="C20" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,21 +1438,21 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" t="s">
         <v>192</v>
-      </c>
-      <c r="B24" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -1481,10 +1481,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" t="s">
         <v>155</v>
-      </c>
-      <c r="B28" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,10 +1497,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" t="s">
         <v>165</v>
-      </c>
-      <c r="B30" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1537,18 +1537,18 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" t="s">
         <v>190</v>
-      </c>
-      <c r="B35" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
         <v>110</v>
-      </c>
-      <c r="B36" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1585,13 +1585,13 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" t="s">
         <v>149</v>
-      </c>
-      <c r="B41" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1612,37 +1612,37 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" t="s">
         <v>151</v>
-      </c>
-      <c r="B44" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
         <v>169</v>
-      </c>
-      <c r="B45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s">
         <v>157</v>
-      </c>
-      <c r="B46" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" t="s">
         <v>179</v>
-      </c>
-      <c r="B47" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1655,10 +1655,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" t="s">
         <v>130</v>
-      </c>
-      <c r="B49" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
@@ -1687,18 +1687,18 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" t="s">
         <v>181</v>
-      </c>
-      <c r="B53" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" t="s">
         <v>177</v>
-      </c>
-      <c r="B54" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1711,29 +1711,29 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
         <v>118</v>
-      </c>
-      <c r="B56" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" t="s">
         <v>171</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>172</v>
-      </c>
-      <c r="C57" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
         <v>122</v>
-      </c>
-      <c r="B58" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1754,10 +1754,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s">
         <v>134</v>
-      </c>
-      <c r="B61" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1802,10 +1802,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s">
         <v>71</v>
@@ -1813,18 +1813,18 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
         <v>137</v>
-      </c>
-      <c r="B68" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69" t="s">
         <v>167</v>
-      </c>
-      <c r="B69" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1837,10 +1837,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" t="s">
         <v>188</v>
-      </c>
-      <c r="B71" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1853,10 +1853,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" t="s">
         <v>106</v>
-      </c>
-      <c r="B73" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1877,18 +1877,18 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" t="s">
         <v>112</v>
-      </c>
-      <c r="B76" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" t="s">
         <v>161</v>
-      </c>
-      <c r="B77" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1901,26 +1901,26 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" t="s">
         <v>108</v>
-      </c>
-      <c r="B79" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" t="s">
         <v>174</v>
-      </c>
-      <c r="B80" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" t="s">
         <v>116</v>
-      </c>
-      <c r="B81" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
@@ -1933,18 +1933,18 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" t="s">
         <v>186</v>
-      </c>
-      <c r="B83" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" t="s">
         <v>163</v>
-      </c>
-      <c r="B84" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1973,13 +1973,13 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B88" t="s">
         <v>64</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1987,10 +1987,10 @@
         <v>63</v>
       </c>
       <c r="B89" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" t="s">
         <v>147</v>
-      </c>
-      <c r="C89" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2003,10 +2003,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" t="s">
         <v>114</v>
-      </c>
-      <c r="B91" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2019,10 +2019,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" t="s">
         <v>128</v>
-      </c>
-      <c r="B93" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2035,26 +2035,26 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" t="s">
         <v>126</v>
-      </c>
-      <c r="B95" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>138</v>
+      </c>
+      <c r="B96" t="s">
         <v>139</v>
-      </c>
-      <c r="B96" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" t="s">
         <v>145</v>
-      </c>
-      <c r="B97" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -5,16 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Nutstore\.nutstore_bGlnaHRuaW5nY2hyaXM4NkBpY2xvdWQuY29t\CRPG-Book-Chinese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VitaCloud\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA14B3C-3722-4870-B0F6-35ADF2EE32D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7482420-7618-41CE-BBEC-95C2BE6540A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_ftn1" localSheetId="0">Sheet1!$A$119</definedName>
+    <definedName name="_ftnref1" localSheetId="0">Sheet1!$A$116</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="239">
   <si>
     <t>译名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -889,6 +893,134 @@
   </si>
   <si>
     <t>Dungeon Crawl: Stone Soup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultima VI: The False Prophet</t>
+  </si>
+  <si>
+    <t>创世纪 6：虚伪先知</t>
+  </si>
+  <si>
+    <t>Tennis for Two</t>
+  </si>
+  <si>
+    <t>双人网球</t>
+  </si>
+  <si>
+    <t>Spacewar!</t>
+  </si>
+  <si>
+    <t>太空大战！</t>
+  </si>
+  <si>
+    <t>Bertie the Brain</t>
+  </si>
+  <si>
+    <t>大脑伯蒂</t>
+  </si>
+  <si>
+    <t>Enduro</t>
+  </si>
+  <si>
+    <t>耐力赛车</t>
+  </si>
+  <si>
+    <t>原创译名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>River Raid</t>
+  </si>
+  <si>
+    <t>运河大战</t>
+  </si>
+  <si>
+    <t>Pitfall</t>
+  </si>
+  <si>
+    <t>陷阱</t>
+  </si>
+  <si>
+    <t>Space Invaders</t>
+  </si>
+  <si>
+    <t>太空侵略者</t>
+  </si>
+  <si>
+    <t>Boxing</t>
+  </si>
+  <si>
+    <t>拳击</t>
+  </si>
+  <si>
+    <t>又名《冒险者》（ADVENT） 或《大冒险》（Adventure）</t>
+  </si>
+  <si>
+    <t>Beneath Apple Manor</t>
+  </si>
+  <si>
+    <t>苹果园之下</t>
+  </si>
+  <si>
+    <t>Dungeon Campaign</t>
+  </si>
+  <si>
+    <t>地牢战役</t>
+  </si>
+  <si>
+    <t>Dragon Maze</t>
+  </si>
+  <si>
+    <t>巨龙迷宫</t>
+  </si>
+  <si>
+    <t>Spirit of Excalibur</t>
+  </si>
+  <si>
+    <t>圣剑之魂</t>
+  </si>
+  <si>
+    <t>Hellfire</t>
+  </si>
+  <si>
+    <t>地狱火</t>
+  </si>
+  <si>
+    <t>这是暗黑的一个拓展包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wilderness Campaign</t>
+  </si>
+  <si>
+    <t>荒野战役</t>
+  </si>
+  <si>
+    <t>Odyssey: The Compleat Apventure</t>
+  </si>
+  <si>
+    <t>奥德赛：完全冒险</t>
+  </si>
+  <si>
+    <t>Apventure to Atlantis</t>
+  </si>
+  <si>
+    <t>亚特兰蒂斯冒险</t>
+  </si>
+  <si>
+    <t>Akalabeth: World of Doom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿卡拉贝：末日世界</t>
+  </si>
+  <si>
+    <t>Eamon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃蒙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1240,18 +1372,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1275,18 +1407,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1307,759 +1439,920 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>183</v>
+      </c>
+      <c r="C25" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>175</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>207</v>
+      </c>
+      <c r="C40" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>227</v>
+      </c>
+      <c r="C50" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>148</v>
+      </c>
+      <c r="C52" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>168</v>
+      </c>
+      <c r="C56" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>171</v>
+      </c>
+      <c r="C69" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>187</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>188</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="C81" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C88" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B89" t="s">
-        <v>146</v>
-      </c>
-      <c r="C89" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="B93" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>185</v>
+      </c>
+      <c r="B100" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>162</v>
+      </c>
+      <c r="B101" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>74</v>
+      </c>
+      <c r="B103" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>198</v>
+      </c>
+      <c r="B104" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" t="s">
+        <v>64</v>
+      </c>
+      <c r="C106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>63</v>
+      </c>
+      <c r="B107" t="s">
+        <v>146</v>
+      </c>
+      <c r="C107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>229</v>
+      </c>
+      <c r="B109" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>127</v>
+      </c>
+      <c r="B112" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>72</v>
+      </c>
+      <c r="B113" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>138</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B115" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>144</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B116" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C97">
-    <sortCondition ref="A2:A97"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C116">
+    <sortCondition ref="A2:A116"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VitaCloud\CRPG-Book-Chinese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Nutstore\.nutstore_bGlnaHRuaW5nY2hyaXM4NkBpY2xvdWQuY29t\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7482420-7618-41CE-BBEC-95C2BE6540A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96342DF4-1AC4-43FB-850A-A170BA6232CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">Sheet1!$A$119</definedName>
-    <definedName name="_ftnref1" localSheetId="0">Sheet1!$A$116</definedName>
+    <definedName name="_ftn1" localSheetId="0">Sheet1!$A$120</definedName>
+    <definedName name="_ftnref1" localSheetId="0">Sheet1!$A$117</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="241">
   <si>
     <t>译名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1021,6 +1021,14 @@
   </si>
   <si>
     <t>埃蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dungeons of Daggorath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴格拉斯地下城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1372,11 +1380,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1664,695 +1672,703 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>237</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
-      </c>
-      <c r="C40" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>207</v>
+      </c>
+      <c r="C41" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>227</v>
-      </c>
-      <c r="C50" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>227</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>148</v>
+      </c>
+      <c r="C53" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>168</v>
+      </c>
+      <c r="C57" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>129</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>86</v>
-      </c>
-      <c r="B62" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
-      </c>
-      <c r="C69" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>171</v>
+      </c>
+      <c r="C70" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>210</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="B81" t="s">
-        <v>135</v>
-      </c>
-      <c r="C81" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B82" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="C82" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="B86" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="B93" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>115</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>15</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>185</v>
-      </c>
-      <c r="B100" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>64</v>
-      </c>
-      <c r="C106" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="B107" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="C107" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B108" t="s">
-        <v>85</v>
+        <v>146</v>
+      </c>
+      <c r="C108" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="B109" t="s">
-        <v>230</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="B113" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>138</v>
+      </c>
+      <c r="B116" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>144</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C116">
-    <sortCondition ref="A2:A116"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C117">
+    <sortCondition ref="A2:A117"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -848,13 +848,13 @@
     <t>Wizardry II: Knight of Diamonds</t>
   </si>
   <si>
-    <t>巫术２•钻石骑士</t>
+    <t>巫术２：钻石骑士</t>
   </si>
   <si>
     <t>Wizardry III: Legacy of Llylgamyn</t>
   </si>
   <si>
-    <t>巫术３•利佳敏的遗产</t>
+    <t>巫术３：利佳敏的遗产</t>
   </si>
   <si>
     <t>Wizardry VII: Crusaders of the Dark Savant</t>
@@ -894,27 +894,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -933,25 +916,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -962,16 +938,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -979,6 +955,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,7 +992,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1001,30 +1000,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,13 +1071,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,37 +1191,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,127 +1227,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,17 +1265,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1298,19 +1292,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1332,18 +1330,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1362,16 +1353,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1380,139 +1380,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1836,9 +1835,9 @@
   <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -2187,7 +2186,7 @@
       <c r="B41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
@@ -2271,7 +2270,7 @@
       <c r="B51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
@@ -2291,7 +2290,7 @@
       <c r="B53" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
@@ -2327,7 +2326,7 @@
       <c r="B57" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
@@ -2441,7 +2440,7 @@
       <c r="B70" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
@@ -2541,7 +2540,7 @@
       <c r="B82" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C82" s="2"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
@@ -2745,7 +2744,7 @@
       <c r="B107" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C107" s="2"/>
+      <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
@@ -2754,7 +2753,7 @@
       <c r="B108" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C108" s="2"/>
+      <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
@@ -2841,7 +2840,7 @@
       <c r="B118" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C118" s="2"/>
+      <c r="C118" s="1"/>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
@@ -2866,7 +2865,7 @@
       <c r="B121" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C121" s="2"/>
+      <c r="C121" s="1"/>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\坚果同步\CRPG-Book-Chinese\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49985417-FF0D-4437-A65D-1DC8F6ECB0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">Sheet1!$A$120</definedName>
-    <definedName name="_ftnref1" localSheetId="0">Sheet1!$A$117</definedName>
+    <definedName name="_ftn1" localSheetId="0">Sheet1!$A$121</definedName>
+    <definedName name="_ftnref1" localSheetId="0">Sheet1!$A$118</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="257">
   <si>
     <t>原名</t>
   </si>
@@ -227,7 +233,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> Doup</t>
     </r>
@@ -467,7 +473,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> 4</t>
     </r>
@@ -734,7 +740,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -761,280 +767,139 @@
     <t>真正的弥赛亚</t>
   </si>
   <si>
+    <t>创世纪</t>
+  </si>
+  <si>
+    <t>Ultima IV: Quest of the Avatar</t>
+  </si>
+  <si>
+    <t>创世纪 4：圣者的传奇</t>
+  </si>
+  <si>
+    <t>Ultima VI: The False Prophet</t>
+  </si>
+  <si>
+    <t>创世纪 6：虚伪先知</t>
+  </si>
+  <si>
+    <t>Valkyria Chronicles</t>
+  </si>
+  <si>
+    <t>战场女武神</t>
+  </si>
+  <si>
+    <t>Vampire: The Masquerade</t>
+  </si>
+  <si>
+    <t>吸血鬼：避世血族</t>
+  </si>
+  <si>
+    <t>注意和第二部名字的区别</t>
+  </si>
+  <si>
+    <t>Vampire: The Masquerade – Bloodlines</t>
+  </si>
+  <si>
+    <t>吸血鬼：避世血族 2</t>
+  </si>
+  <si>
+    <t>第一部的名字后面没有Bloodlines</t>
+  </si>
+  <si>
+    <t>Wasteland</t>
+  </si>
+  <si>
+    <t>废土</t>
+  </si>
+  <si>
+    <t>Wilderness Campaign</t>
+  </si>
+  <si>
+    <t>荒野战役</t>
+  </si>
+  <si>
+    <t>Windwalker</t>
+  </si>
+  <si>
+    <t>风行者</t>
+  </si>
+  <si>
+    <t>Wizard’s Crown</t>
+  </si>
+  <si>
+    <t>巫师神冠</t>
+  </si>
+  <si>
+    <t>Wizardry</t>
+  </si>
+  <si>
+    <t>巫术</t>
+  </si>
+  <si>
+    <t>Wizardry Gold</t>
+  </si>
+  <si>
+    <t>巫术 黄金版</t>
+  </si>
+  <si>
+    <t>Wizardry I: Proving Grounds of the Mad Overlord</t>
+  </si>
+  <si>
+    <t>巫术 1：狂王的试炼场</t>
+  </si>
+  <si>
+    <t>Wizardry II: Knight of Diamonds</t>
+  </si>
+  <si>
+    <t>巫术２：钻石骑士</t>
+  </si>
+  <si>
+    <t>Wizardry III: Legacy of Llylgamyn</t>
+  </si>
+  <si>
+    <t>巫术３：利佳敏的遗产</t>
+  </si>
+  <si>
+    <t>Wizardry VII: Crusaders of the Dark Savant</t>
+  </si>
+  <si>
+    <t>巫术 7：失落的迦地亚</t>
+  </si>
+  <si>
+    <t>World of Warcraft</t>
+  </si>
+  <si>
+    <t>魔兽世界</t>
+  </si>
+  <si>
+    <t>Zork</t>
+  </si>
+  <si>
+    <t>魔域帝国</t>
+  </si>
+  <si>
     <t>Ultima</t>
-  </si>
-  <si>
-    <t>创世纪</t>
-  </si>
-  <si>
-    <t>Ultima IV: Quest of the Avatar</t>
-  </si>
-  <si>
-    <t>创世纪 4：圣者的传奇</t>
-  </si>
-  <si>
-    <t>Ultima VI: The False Prophet</t>
-  </si>
-  <si>
-    <t>创世纪 6：虚伪先知</t>
-  </si>
-  <si>
-    <t>Valkyria Chronicles</t>
-  </si>
-  <si>
-    <t>战场女武神</t>
-  </si>
-  <si>
-    <t>Vampire: The Masquerade</t>
-  </si>
-  <si>
-    <t>吸血鬼：避世血族</t>
-  </si>
-  <si>
-    <t>注意和第二部名字的区别</t>
-  </si>
-  <si>
-    <t>Vampire: The Masquerade – Bloodlines</t>
-  </si>
-  <si>
-    <t>吸血鬼：避世血族 2</t>
-  </si>
-  <si>
-    <t>第一部的名字后面没有Bloodlines</t>
-  </si>
-  <si>
-    <t>Wasteland</t>
-  </si>
-  <si>
-    <t>废土</t>
-  </si>
-  <si>
-    <t>Wilderness Campaign</t>
-  </si>
-  <si>
-    <t>荒野战役</t>
-  </si>
-  <si>
-    <t>Windwalker</t>
-  </si>
-  <si>
-    <t>风行者</t>
-  </si>
-  <si>
-    <t>Wizard’s Crown</t>
-  </si>
-  <si>
-    <t>巫师神冠</t>
-  </si>
-  <si>
-    <t>Wizardry</t>
-  </si>
-  <si>
-    <t>巫术</t>
-  </si>
-  <si>
-    <t>Wizardry Gold</t>
-  </si>
-  <si>
-    <t>巫术 黄金版</t>
-  </si>
-  <si>
-    <t>Wizardry I: Proving Grounds of the Mad Overlord</t>
-  </si>
-  <si>
-    <t>巫术 1：狂王的试炼场</t>
-  </si>
-  <si>
-    <t>Wizardry II: Knight of Diamonds</t>
-  </si>
-  <si>
-    <t>巫术２：钻石骑士</t>
-  </si>
-  <si>
-    <t>Wizardry III: Legacy of Llylgamyn</t>
-  </si>
-  <si>
-    <t>巫术３：利佳敏的遗产</t>
-  </si>
-  <si>
-    <t>Wizardry VII: Crusaders of the Dark Savant</t>
-  </si>
-  <si>
-    <t>巫术 7：失落的迦地亚</t>
-  </si>
-  <si>
-    <t>World of Warcraft</t>
-  </si>
-  <si>
-    <t>魔兽世界</t>
-  </si>
-  <si>
-    <t>Zork</t>
-  </si>
-  <si>
-    <t>魔域帝国</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunnels of Doom</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>末日隧道</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1047,13 +912,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1061,202 +926,30 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1264,311 +957,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1826,28 +1235,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A123" sqref="A123"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="33.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="53.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="65.375" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="53.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +1266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1866,7 +1274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1874,7 +1282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1882,7 +1290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1890,7 +1298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1898,7 +1306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1906,7 +1314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1914,7 +1322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1922,7 +1330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1930,7 +1338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1938,7 +1346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1946,7 +1354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1954,7 +1362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1962,7 +1370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1970,7 +1378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1978,7 +1386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1986,7 +1394,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1994,7 +1402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2002,7 +1410,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2013,7 +1421,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2021,7 +1429,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2029,7 +1437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2037,7 +1445,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2045,7 +1453,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2056,7 +1464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2064,7 +1472,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -2072,7 +1480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -2083,7 +1491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -2091,7 +1499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2099,7 +1507,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -2107,7 +1515,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2115,7 +1523,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
@@ -2123,7 +1531,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -2131,7 +1539,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -2139,7 +1547,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -2147,7 +1555,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -2155,7 +1563,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>77</v>
       </c>
@@ -2163,7 +1571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
@@ -2171,7 +1579,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -2179,7 +1587,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
@@ -2188,7 +1596,7 @@
       </c>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
@@ -2199,7 +1607,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
@@ -2207,7 +1615,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -2215,7 +1623,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -2223,7 +1631,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
@@ -2231,7 +1639,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
@@ -2239,7 +1647,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
@@ -2247,7 +1655,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
@@ -2255,7 +1663,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -2263,7 +1671,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
@@ -2272,7 +1680,7 @@
       </c>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
@@ -2283,7 +1691,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>109</v>
       </c>
@@ -2292,7 +1700,7 @@
       </c>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>111</v>
       </c>
@@ -2303,7 +1711,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
@@ -2311,7 +1719,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>115</v>
       </c>
@@ -2319,7 +1727,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -2328,7 +1736,7 @@
       </c>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
@@ -2339,7 +1747,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
@@ -2347,7 +1755,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>122</v>
       </c>
@@ -2358,7 +1766,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>125</v>
       </c>
@@ -2366,7 +1774,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -2374,7 +1782,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>129</v>
       </c>
@@ -2382,7 +1790,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" ht="15.6" spans="1:2">
+    <row r="64" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -2390,7 +1798,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
@@ -2398,7 +1806,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
@@ -2409,7 +1817,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>138</v>
       </c>
@@ -2417,7 +1825,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>140</v>
       </c>
@@ -2425,7 +1833,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>142</v>
       </c>
@@ -2433,7 +1841,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>144</v>
       </c>
@@ -2442,7 +1850,7 @@
       </c>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>146</v>
       </c>
@@ -2450,7 +1858,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>148</v>
       </c>
@@ -2458,7 +1866,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>150</v>
       </c>
@@ -2469,7 +1877,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>153</v>
       </c>
@@ -2477,7 +1885,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>155</v>
       </c>
@@ -2485,7 +1893,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>157</v>
       </c>
@@ -2493,7 +1901,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>159</v>
       </c>
@@ -2501,7 +1909,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>161</v>
       </c>
@@ -2509,7 +1917,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>163</v>
       </c>
@@ -2517,7 +1925,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>165</v>
       </c>
@@ -2525,7 +1933,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>167</v>
       </c>
@@ -2533,7 +1941,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>169</v>
       </c>
@@ -2542,7 +1950,7 @@
       </c>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>171</v>
       </c>
@@ -2550,7 +1958,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>173</v>
       </c>
@@ -2558,7 +1966,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>175</v>
       </c>
@@ -2569,7 +1977,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>177</v>
       </c>
@@ -2577,7 +1985,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>179</v>
       </c>
@@ -2585,7 +1993,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>181</v>
       </c>
@@ -2593,7 +2001,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>183</v>
       </c>
@@ -2601,7 +2009,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>185</v>
       </c>
@@ -2609,7 +2017,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>187</v>
       </c>
@@ -2617,7 +2025,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>189</v>
       </c>
@@ -2625,7 +2033,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>191</v>
       </c>
@@ -2633,7 +2041,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>193</v>
       </c>
@@ -2641,7 +2049,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>195</v>
       </c>
@@ -2649,7 +2057,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>197</v>
       </c>
@@ -2657,7 +2065,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>199</v>
       </c>
@@ -2665,7 +2073,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>201</v>
       </c>
@@ -2673,7 +2081,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>203</v>
       </c>
@@ -2681,7 +2089,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>205</v>
       </c>
@@ -2689,7 +2097,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>207</v>
       </c>
@@ -2697,7 +2105,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>209</v>
       </c>
@@ -2705,7 +2113,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" ht="15.6" spans="1:2">
+    <row r="103" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>211</v>
       </c>
@@ -2713,7 +2121,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>213</v>
       </c>
@@ -2721,7 +2129,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>215</v>
       </c>
@@ -2729,166 +2137,174 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B106" s="1" t="s">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C107" s="1"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C108" s="1"/>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B109" s="1" t="s">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C111" t="s">
         <v>226</v>
       </c>
-      <c r="C110" t="s">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C112" t="s">
         <v>229</v>
       </c>
-      <c r="C111" t="s">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B112" s="1" t="s">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B113" s="1" t="s">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B114" s="1" t="s">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B115" s="1" t="s">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B116" s="1" t="s">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B117" s="1" t="s">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B119" s="1" t="s">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B120" s="1" t="s">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B122" s="1" t="s">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>254</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C123">
-    <sortCondition ref="A2:A123"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C124">
+    <sortCondition ref="A2:A124"/>
   </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\坚果同步\CRPG-Book-Chinese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49985417-FF0D-4437-A65D-1DC8F6ECB0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAC3A8C-EACE-4E1D-B10F-152543299749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="3795" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="261">
   <si>
     <t>原名</t>
   </si>
@@ -213,7 +213,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -462,7 +462,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -729,7 +729,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -889,16 +889,28 @@
     <t>末日隧道</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>Ultima III: Exodus</t>
+  </si>
+  <si>
+    <t>创世纪 3：出埃及记</t>
+  </si>
+  <si>
+    <t>Dragon Quest</t>
+  </si>
+  <si>
+    <t>勇者斗恶龙</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -928,14 +940,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -961,11 +973,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1241,21 +1254,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="65.375" customWidth="1"/>
-    <col min="2" max="2" width="33.625" customWidth="1"/>
-    <col min="3" max="3" width="53.625" customWidth="1"/>
+    <col min="1" max="1" width="65.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1274,7 +1287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1282,7 +1295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1290,7 +1303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1298,7 +1311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1306,7 +1319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +1327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1330,7 +1343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1338,7 +1351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1346,7 +1359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1354,7 +1367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1362,7 +1375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1370,7 +1383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1378,7 +1391,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1386,7 +1399,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1394,7 +1407,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1410,7 +1423,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1421,7 +1434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1429,7 +1442,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1437,7 +1450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1445,7 +1458,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1453,7 +1466,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1464,7 +1477,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1472,7 +1485,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1480,7 +1493,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -1491,7 +1504,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -1499,7 +1512,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1507,7 +1520,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -1515,7 +1528,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -1523,785 +1536,801 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:3" ht="17.25">
+      <c r="A65" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:3" ht="17.25">
+      <c r="A104" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:3">
+      <c r="A107" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+    <row r="109" spans="1:3">
+      <c r="A109" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C108" s="1"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C113" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C114" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>253</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C124">
-    <sortCondition ref="A2:A124"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C126">
+    <sortCondition ref="A2:A126"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAC3A8C-EACE-4E1D-B10F-152543299749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7321261-B2CA-49EF-9951-C013D6C61C24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="3795" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="292">
   <si>
     <t>原名</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>超时空之轮</t>
-  </si>
-  <si>
-    <t>Colossal Cave Adventure</t>
   </si>
   <si>
     <t>巨洞冒险</t>
@@ -275,16 +272,7 @@
     <t>地牢战役</t>
   </si>
   <si>
-    <t>Dungeon Crawl: Stone Soup</t>
-  </si>
-  <si>
-    <t>地城探宝：石头汤</t>
-  </si>
-  <si>
     <t>Dungeon Master</t>
-  </si>
-  <si>
-    <t>地下城主/地牢大师</t>
   </si>
   <si>
     <t>Dungeons &amp; Dragons (D&amp;D)</t>
@@ -842,22 +830,10 @@
     <t>巫术 黄金版</t>
   </si>
   <si>
-    <t>Wizardry I: Proving Grounds of the Mad Overlord</t>
-  </si>
-  <si>
-    <t>巫术 1：狂王的试炼场</t>
-  </si>
-  <si>
     <t>Wizardry II: Knight of Diamonds</t>
   </si>
   <si>
-    <t>巫术２：钻石骑士</t>
-  </si>
-  <si>
     <t>Wizardry III: Legacy of Llylgamyn</t>
-  </si>
-  <si>
-    <t>巫术３：利佳敏的遗产</t>
   </si>
   <si>
     <t>Wizardry VII: Crusaders of the Dark Savant</t>
@@ -900,13 +876,130 @@
   </si>
   <si>
     <t>勇者斗恶龙</t>
+  </si>
+  <si>
+    <t>The Return of Heracles</t>
+  </si>
+  <si>
+    <t>赫拉克勒斯的归来</t>
+  </si>
+  <si>
+    <t>Fracas</t>
+  </si>
+  <si>
+    <t>纷争</t>
+  </si>
+  <si>
+    <t>Ali Baba and the Forty Thieves</t>
+  </si>
+  <si>
+    <t>阿里巴巴与四十大盗</t>
+  </si>
+  <si>
+    <t>The Oregon Trail</t>
+  </si>
+  <si>
+    <t>俄勒冈之路</t>
+  </si>
+  <si>
+    <t>Asteroids</t>
+  </si>
+  <si>
+    <t>小行星</t>
+  </si>
+  <si>
+    <t>Donkey Kong</t>
+  </si>
+  <si>
+    <t>大金刚</t>
+  </si>
+  <si>
+    <t>Mr. Do!</t>
+  </si>
+  <si>
+    <t>嘟先生</t>
+  </si>
+  <si>
+    <t>Centipede</t>
+  </si>
+  <si>
+    <t>蜈蚣</t>
+  </si>
+  <si>
+    <t>Wizard’s Castle</t>
+  </si>
+  <si>
+    <t>巫师城堡</t>
+  </si>
+  <si>
+    <t>SwordThrust</t>
+  </si>
+  <si>
+    <t>剑刺</t>
+  </si>
+  <si>
+    <t>Brogue</t>
+  </si>
+  <si>
+    <t>NetHack</t>
+  </si>
+  <si>
+    <t>迷宫骇客</t>
+  </si>
+  <si>
+    <t>Elona</t>
+  </si>
+  <si>
+    <t>伊洛纳</t>
+  </si>
+  <si>
+    <t>Angband</t>
+  </si>
+  <si>
+    <t>安格班德</t>
+  </si>
+  <si>
+    <t>Dungeon Crawl: Stone Soup (DCSS)</t>
+  </si>
+  <si>
+    <t>地城探宝：石头汤 / 深入地下城之石头汤</t>
+  </si>
+  <si>
+    <t>地下城主 / 地牢大师</t>
+  </si>
+  <si>
+    <t>Colossal Cave Adventure / Colossal Cave</t>
+  </si>
+  <si>
+    <t>Wizardry: Proving Grounds of the Mad Overlord</t>
+  </si>
+  <si>
+    <t>巫术1</t>
+  </si>
+  <si>
+    <t>巫术 2：钻石骑士</t>
+  </si>
+  <si>
+    <t>巫术 3：利佳敏的遗产</t>
+  </si>
+  <si>
+    <t>Wizardry: Story of Llylgamyn</t>
+  </si>
+  <si>
+    <t>巫术：利佳敏轶事</t>
+  </si>
+  <si>
+    <t>日本 SNES 提供的“巫术三部曲重置版”</t>
+  </si>
+  <si>
+    <t>巫术：狂王的试炼场</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,6 +1045,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -973,12 +1073,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1254,17 +1355,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="65.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1312,1025 +1413,1161 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+      <c r="A6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
+      <c r="A10" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
+        <v>261</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
+      <c r="A21" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
+      <c r="A23" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>283</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>260</v>
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>68</v>
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>70</v>
+      <c r="A35" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>71</v>
+      <c r="A36" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>78</v>
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>80</v>
+      <c r="A40" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>87</v>
+      <c r="A43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>89</v>
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>91</v>
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>99</v>
+      <c r="A49" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>114</v>
+      <c r="A56" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" t="s">
-        <v>124</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>126</v>
+        <v>103</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>128</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17.25">
+        <v>107</v>
+      </c>
+      <c r="C64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" t="s">
-        <v>137</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
+      </c>
+      <c r="C70" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C71" s="1"/>
+        <v>122</v>
+      </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17.25">
       <c r="A74" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
+      </c>
+      <c r="C76" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>164</v>
+      <c r="A80" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>166</v>
+      <c r="A81" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>168</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" s="1"/>
+        <v>143</v>
+      </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>174</v>
+        <v>147</v>
+      </c>
+      <c r="C85" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C86" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>192</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
+      </c>
+      <c r="C97" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>216</v>
+      <c r="A106" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>256</v>
+      <c r="A107" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="2" t="s">
-        <v>254</v>
+      <c r="A108" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>258</v>
+      <c r="A109" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C110" s="1"/>
+        <v>196</v>
+      </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C111" s="1"/>
+        <v>198</v>
+      </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C113" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C114" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17.25">
       <c r="A116" s="1" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>235</v>
+      <c r="A117" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>237</v>
+      <c r="A118" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C121" s="1"/>
+      <c r="A121" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1" t="s">
-        <v>244</v>
+      <c r="A122" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>247</v>
+      <c r="A123" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="C124" s="1"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>251</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C125" s="1"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>253</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C128" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C140" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C126">
-    <sortCondition ref="A2:A126"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C142">
+    <sortCondition ref="A2:A142"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7321261-B2CA-49EF-9951-C013D6C61C24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1ACCDD-6501-4BE8-BD98-395DD6C61B9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="3795" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,15 +16,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">Sheet1!$A$121</definedName>
-    <definedName name="_ftnref1" localSheetId="0">Sheet1!$A$118</definedName>
+    <definedName name="_ftn1" localSheetId="0">Sheet1!$A$119</definedName>
+    <definedName name="_ftnref1" localSheetId="0">Sheet1!$A$116</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="298">
   <si>
     <t>原名</t>
   </si>
@@ -39,18 +39,6 @@
   </si>
   <si>
     <t>进阶龙与地下城</t>
-  </si>
-  <si>
-    <t>Akalabeth</t>
-  </si>
-  <si>
-    <t>阿卡拉贝</t>
-  </si>
-  <si>
-    <t>Akalabeth: World of Doom</t>
-  </si>
-  <si>
-    <t>阿卡拉贝：末日世界</t>
   </si>
   <si>
     <t>Albion</t>
@@ -446,291 +434,518 @@
     <t>Might and Magic IV: Clouds of Xeen</t>
   </si>
   <si>
+    <t>Might and Magic VI: The Mandate of Heaven</t>
+  </si>
+  <si>
+    <t>魔法门 6：天堂之令</t>
+  </si>
+  <si>
+    <t>Moonstone:  A Hard Days Knight</t>
+  </si>
+  <si>
+    <t>Mordor</t>
+  </si>
+  <si>
+    <t>摩多</t>
+  </si>
+  <si>
+    <t>Mordor: Depths of Dejenol</t>
+  </si>
+  <si>
+    <t>魔多：丹杰诺儿之幽</t>
+  </si>
+  <si>
+    <t>Moria</t>
+  </si>
+  <si>
+    <t>摩瑞亚</t>
+  </si>
+  <si>
+    <t>Neverwinter Nights</t>
+  </si>
+  <si>
+    <t>无冬之夜</t>
+  </si>
+  <si>
+    <t>Oblivion</t>
+  </si>
+  <si>
+    <t>湮没</t>
+  </si>
+  <si>
+    <t>Odyssey: The Compleat Apventure</t>
+  </si>
+  <si>
+    <t>奥德赛：完全冒险</t>
+  </si>
+  <si>
+    <t>Oubliette</t>
+  </si>
+  <si>
+    <t>地下密牢</t>
+  </si>
+  <si>
+    <t>原创</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>吃豆人</t>
+  </si>
+  <si>
+    <t>Phantasie</t>
+  </si>
+  <si>
+    <t>幽灵战士</t>
+  </si>
+  <si>
+    <t>Pitfall</t>
+  </si>
+  <si>
+    <t>陷阱</t>
+  </si>
+  <si>
+    <t>Planescape: Torment</t>
+  </si>
+  <si>
+    <t>异域镇魂曲</t>
+  </si>
+  <si>
+    <t>Planetfall</t>
+  </si>
+  <si>
+    <t>星陨</t>
+  </si>
+  <si>
+    <t>Pong</t>
+  </si>
+  <si>
+    <t>乓</t>
+  </si>
+  <si>
+    <t>Pool of Radiance</t>
+  </si>
+  <si>
+    <t>光芒之池</t>
+  </si>
+  <si>
+    <t>Quest for Glory</t>
+  </si>
+  <si>
+    <t>荣耀任务</t>
+  </si>
+  <si>
+    <t>Quest for Glory: Shadows of Darkness</t>
+  </si>
+  <si>
+    <t>荣耀任务：黑暗之影</t>
+  </si>
+  <si>
+    <t>Rampart</t>
+  </si>
+  <si>
+    <t>领国战役</t>
+  </si>
+  <si>
+    <t>River Raid</t>
+  </si>
+  <si>
+    <t>运河大战</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>这个不翻译</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>江湖</t>
+  </si>
+  <si>
+    <t>Space Invaders</t>
+  </si>
+  <si>
+    <t>太空侵略者</t>
+  </si>
+  <si>
+    <t>Spacewar!</t>
+  </si>
+  <si>
+    <t>太空大战！</t>
+  </si>
+  <si>
+    <t>Spasim</t>
+  </si>
+  <si>
+    <t>太空模拟战</t>
+  </si>
+  <si>
+    <t>Spirit of Excalibur</t>
+  </si>
+  <si>
+    <t>圣剑之魂</t>
+  </si>
+  <si>
+    <t>Star Control</t>
+  </si>
+  <si>
+    <t>星际管理</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>星球大战</t>
+  </si>
+  <si>
+    <t>Star Wars: Knights of the Old Republic II - The Sith Lords (Star Wars: KotOR II)</t>
+  </si>
+  <si>
+    <t>星球大战：旧共和国武士</t>
+  </si>
+  <si>
+    <t>System Shock</t>
+  </si>
+  <si>
+    <t>网络奇兵</t>
+  </si>
+  <si>
+    <t>Tales of Maj’Eyal</t>
+  </si>
+  <si>
+    <t>马基埃亚尔的传说</t>
+  </si>
+  <si>
+    <t>Telengard</t>
+  </si>
+  <si>
+    <t>泰伦嘉德</t>
+  </si>
+  <si>
+    <t>Telepath Tactics</t>
+  </si>
+  <si>
+    <t>传心策略（又可译作《心灵感应战》）</t>
+  </si>
+  <si>
+    <t>Temple of Elemental Evil</t>
+  </si>
+  <si>
+    <t>邪恶元素神殿</t>
+  </si>
+  <si>
+    <t>Tennis for Two</t>
+  </si>
+  <si>
+    <t>双人网球</t>
+  </si>
+  <si>
+    <t>The Bard’s Tale</t>
+  </si>
+  <si>
+    <t>冰城传奇</t>
+  </si>
+  <si>
+    <t>The Dungeon</t>
+  </si>
+  <si>
+    <t>地牢</t>
+  </si>
+  <si>
+    <t>The Elder Scrolls II: Daggerfall</t>
+  </si>
+  <si>
+    <t>上古卷轴 2：匕首雨</t>
+  </si>
+  <si>
+    <t>The Elder Scrolls III: Morrowind</t>
+  </si>
+  <si>
+    <t>Traveller</t>
+  </si>
+  <si>
+    <t>旅行者</t>
+  </si>
+  <si>
+    <t>True Messiah</t>
+  </si>
+  <si>
+    <t>真正的弥赛亚</t>
+  </si>
+  <si>
+    <t>创世纪</t>
+  </si>
+  <si>
+    <t>Ultima IV: Quest of the Avatar</t>
+  </si>
+  <si>
+    <t>创世纪 4：圣者的传奇</t>
+  </si>
+  <si>
+    <t>Ultima VI: The False Prophet</t>
+  </si>
+  <si>
+    <t>创世纪 6：虚伪先知</t>
+  </si>
+  <si>
+    <t>Valkyria Chronicles</t>
+  </si>
+  <si>
+    <t>战场女武神</t>
+  </si>
+  <si>
+    <t>Vampire: The Masquerade</t>
+  </si>
+  <si>
+    <t>吸血鬼：避世血族</t>
+  </si>
+  <si>
+    <t>注意和第二部名字的区别</t>
+  </si>
+  <si>
+    <t>Vampire: The Masquerade – Bloodlines</t>
+  </si>
+  <si>
+    <t>吸血鬼：避世血族 2</t>
+  </si>
+  <si>
+    <t>第一部的名字后面没有Bloodlines</t>
+  </si>
+  <si>
+    <t>Wasteland</t>
+  </si>
+  <si>
+    <t>废土</t>
+  </si>
+  <si>
+    <t>Wilderness Campaign</t>
+  </si>
+  <si>
+    <t>荒野战役</t>
+  </si>
+  <si>
+    <t>Windwalker</t>
+  </si>
+  <si>
+    <t>风行者</t>
+  </si>
+  <si>
+    <t>Wizard’s Crown</t>
+  </si>
+  <si>
+    <t>巫师神冠</t>
+  </si>
+  <si>
+    <t>Wizardry</t>
+  </si>
+  <si>
+    <t>巫术</t>
+  </si>
+  <si>
+    <t>Wizardry Gold</t>
+  </si>
+  <si>
+    <t>巫术 黄金版</t>
+  </si>
+  <si>
+    <t>Wizardry II: Knight of Diamonds</t>
+  </si>
+  <si>
+    <t>Wizardry III: Legacy of Llylgamyn</t>
+  </si>
+  <si>
+    <t>Wizardry VII: Crusaders of the Dark Savant</t>
+  </si>
+  <si>
+    <t>巫术 7：失落的迦地亚</t>
+  </si>
+  <si>
+    <t>World of Warcraft</t>
+  </si>
+  <si>
+    <t>魔兽世界</t>
+  </si>
+  <si>
+    <t>Zork</t>
+  </si>
+  <si>
+    <t>魔域帝国</t>
+  </si>
+  <si>
+    <t>Ultima</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunnels of Doom</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>末日隧道</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultima III: Exodus</t>
+  </si>
+  <si>
+    <t>创世纪 3：出埃及记</t>
+  </si>
+  <si>
+    <t>Dragon Quest</t>
+  </si>
+  <si>
+    <t>勇者斗恶龙</t>
+  </si>
+  <si>
+    <t>The Return of Heracles</t>
+  </si>
+  <si>
+    <t>赫拉克勒斯的归来</t>
+  </si>
+  <si>
+    <t>Fracas</t>
+  </si>
+  <si>
+    <t>纷争</t>
+  </si>
+  <si>
+    <t>Ali Baba and the Forty Thieves</t>
+  </si>
+  <si>
+    <t>阿里巴巴与四十大盗</t>
+  </si>
+  <si>
+    <t>The Oregon Trail</t>
+  </si>
+  <si>
+    <t>俄勒冈之路</t>
+  </si>
+  <si>
+    <t>Asteroids</t>
+  </si>
+  <si>
+    <t>小行星</t>
+  </si>
+  <si>
+    <t>Donkey Kong</t>
+  </si>
+  <si>
+    <t>大金刚</t>
+  </si>
+  <si>
+    <t>Mr. Do!</t>
+  </si>
+  <si>
+    <t>嘟先生</t>
+  </si>
+  <si>
+    <t>Centipede</t>
+  </si>
+  <si>
+    <t>蜈蚣</t>
+  </si>
+  <si>
+    <t>Wizard’s Castle</t>
+  </si>
+  <si>
+    <t>巫师城堡</t>
+  </si>
+  <si>
+    <t>SwordThrust</t>
+  </si>
+  <si>
+    <t>剑刺</t>
+  </si>
+  <si>
+    <t>Brogue</t>
+  </si>
+  <si>
+    <t>NetHack</t>
+  </si>
+  <si>
+    <t>迷宫骇客</t>
+  </si>
+  <si>
+    <t>Elona</t>
+  </si>
+  <si>
+    <t>伊洛纳</t>
+  </si>
+  <si>
+    <t>Angband</t>
+  </si>
+  <si>
+    <t>安格班德</t>
+  </si>
+  <si>
+    <t>Dungeon Crawl: Stone Soup (DCSS)</t>
+  </si>
+  <si>
+    <t>地城探宝：石头汤 / 深入地下城之石头汤</t>
+  </si>
+  <si>
+    <t>地下城主 / 地牢大师</t>
+  </si>
+  <si>
+    <t>Colossal Cave Adventure / Colossal Cave</t>
+  </si>
+  <si>
+    <t>Wizardry: Proving Grounds of the Mad Overlord</t>
+  </si>
+  <si>
+    <t>巫术1</t>
+  </si>
+  <si>
+    <t>巫术 2：钻石骑士</t>
+  </si>
+  <si>
+    <t>巫术 3：利佳敏的遗产</t>
+  </si>
+  <si>
+    <t>Wizardry: Story of Llylgamyn</t>
+  </si>
+  <si>
+    <t>巫术：利佳敏轶事</t>
+  </si>
+  <si>
+    <t>日本 SNES 提供的“巫术三部曲重置版”</t>
+  </si>
+  <si>
+    <t>巫术：狂王的试炼场</t>
+  </si>
+  <si>
+    <t>Ultima 1: The First Age of Darkness</t>
+  </si>
+  <si>
+    <t>Ultima 的重制版</t>
+  </si>
+  <si>
+    <t>Akalabeth: World of Doom / Akalabeth</t>
+  </si>
+  <si>
+    <t>阿卡拉贝：末日世界 / 阿卡拉贝</t>
+  </si>
+  <si>
+    <t>Star Raiders</t>
+  </si>
+  <si>
+    <t>星际奇兵</t>
+  </si>
+  <si>
+    <t>地牢任务：阿帕莎神庙</t>
+  </si>
+  <si>
+    <t>Dunjonquest: Temple of Apshai</t>
+  </si>
+  <si>
+    <t>创世纪 1：黑暗时代</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>魔法门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：星云之谜</t>
-    </r>
-  </si>
-  <si>
-    <t>Might and Magic VI: The Mandate of Heaven</t>
-  </si>
-  <si>
-    <t>魔法门 6：天堂之令</t>
-  </si>
-  <si>
-    <t>Moonstone:  A Hard Days Knight</t>
-  </si>
-  <si>
-    <t>月石·苦难骑士</t>
-  </si>
-  <si>
-    <t>未找到译名，自译</t>
-  </si>
-  <si>
-    <t>Mordor</t>
-  </si>
-  <si>
-    <t>摩多</t>
-  </si>
-  <si>
-    <t>Mordor: Depths of Dejenol</t>
-  </si>
-  <si>
-    <t>魔多：丹杰诺儿之幽</t>
-  </si>
-  <si>
-    <t>Moria</t>
-  </si>
-  <si>
-    <t>摩瑞亚</t>
-  </si>
-  <si>
-    <t>Neverwinter Nights</t>
-  </si>
-  <si>
-    <t>无冬之夜</t>
-  </si>
-  <si>
-    <t>Oblivion</t>
-  </si>
-  <si>
-    <t>湮没</t>
-  </si>
-  <si>
-    <t>Odyssey: The Compleat Apventure</t>
-  </si>
-  <si>
-    <t>奥德赛：完全冒险</t>
-  </si>
-  <si>
-    <t>Oubliette</t>
-  </si>
-  <si>
-    <t>地下密牢</t>
-  </si>
-  <si>
-    <t>原创</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>吃豆人</t>
-  </si>
-  <si>
-    <t>Phantasie</t>
-  </si>
-  <si>
-    <t>幽灵战士</t>
-  </si>
-  <si>
-    <t>Pitfall</t>
-  </si>
-  <si>
-    <t>陷阱</t>
-  </si>
-  <si>
-    <t>Planescape: Torment</t>
-  </si>
-  <si>
-    <t>异域镇魂曲</t>
-  </si>
-  <si>
-    <t>Planetfall</t>
-  </si>
-  <si>
-    <t>星陨</t>
-  </si>
-  <si>
-    <t>Pong</t>
-  </si>
-  <si>
-    <t>乓</t>
-  </si>
-  <si>
-    <t>Pool of Radiance</t>
-  </si>
-  <si>
-    <t>光芒之池</t>
-  </si>
-  <si>
-    <t>Quest for Glory</t>
-  </si>
-  <si>
-    <t>荣耀任务</t>
-  </si>
-  <si>
-    <t>Quest for Glory: Shadows of Darkness</t>
-  </si>
-  <si>
-    <t>荣耀任务：黑暗之影</t>
-  </si>
-  <si>
-    <t>Rampart</t>
-  </si>
-  <si>
-    <t>领国战役</t>
-  </si>
-  <si>
-    <t>River Raid</t>
-  </si>
-  <si>
-    <t>运河大战</t>
-  </si>
-  <si>
-    <t>Rogue</t>
-  </si>
-  <si>
-    <t>这个不翻译</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>江湖</t>
-  </si>
-  <si>
-    <t>Space Invaders</t>
-  </si>
-  <si>
-    <t>太空侵略者</t>
-  </si>
-  <si>
-    <t>Spacewar!</t>
-  </si>
-  <si>
-    <t>太空大战！</t>
-  </si>
-  <si>
-    <t>Spasim</t>
-  </si>
-  <si>
-    <t>太空模拟战</t>
-  </si>
-  <si>
-    <t>Spirit of Excalibur</t>
-  </si>
-  <si>
-    <t>圣剑之魂</t>
-  </si>
-  <si>
-    <t>Star Control</t>
-  </si>
-  <si>
-    <t>星际管理</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>星球大战</t>
-  </si>
-  <si>
-    <t>Star Wars: Knights of the Old Republic II - The Sith Lords (Star Wars: KotOR II)</t>
-  </si>
-  <si>
-    <t>星球大战：旧共和国武士</t>
-  </si>
-  <si>
-    <t>System Shock</t>
-  </si>
-  <si>
-    <t>网络奇兵</t>
-  </si>
-  <si>
-    <t>Tales of Maj’Eyal</t>
-  </si>
-  <si>
-    <t>马基埃亚尔的传说</t>
-  </si>
-  <si>
-    <t>Telengard</t>
-  </si>
-  <si>
-    <t>泰伦嘉德</t>
-  </si>
-  <si>
-    <t>Telepath Tactics</t>
-  </si>
-  <si>
-    <t>传心策略（又可译作《心灵感应战》）</t>
-  </si>
-  <si>
-    <t>Temple of Elemental Evil</t>
-  </si>
-  <si>
-    <t>邪恶元素神殿</t>
-  </si>
-  <si>
-    <t>Tennis for Two</t>
-  </si>
-  <si>
-    <t>双人网球</t>
-  </si>
-  <si>
-    <t>The Bard’s Tale</t>
-  </si>
-  <si>
-    <t>冰城传奇</t>
-  </si>
-  <si>
-    <t>The Dungeon</t>
-  </si>
-  <si>
-    <t>地牢</t>
-  </si>
-  <si>
-    <t>The Elder Scrolls II: Daggerfall</t>
-  </si>
-  <si>
-    <t>上古卷轴 2：匕首雨</t>
-  </si>
-  <si>
-    <t>The Elder Scrolls III: Morrowind</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上古卷轴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
+      <t>上古卷轴 3</t>
     </r>
     <r>
       <rPr>
@@ -743,256 +958,36 @@
     </r>
   </si>
   <si>
-    <t>Traveller</t>
-  </si>
-  <si>
-    <t>旅行者</t>
-  </si>
-  <si>
-    <t>True Messiah</t>
-  </si>
-  <si>
-    <t>真正的弥赛亚</t>
-  </si>
-  <si>
-    <t>创世纪</t>
-  </si>
-  <si>
-    <t>Ultima IV: Quest of the Avatar</t>
-  </si>
-  <si>
-    <t>创世纪 4：圣者的传奇</t>
-  </si>
-  <si>
-    <t>Ultima VI: The False Prophet</t>
-  </si>
-  <si>
-    <t>创世纪 6：虚伪先知</t>
-  </si>
-  <si>
-    <t>Valkyria Chronicles</t>
-  </si>
-  <si>
-    <t>战场女武神</t>
-  </si>
-  <si>
-    <t>Vampire: The Masquerade</t>
-  </si>
-  <si>
-    <t>吸血鬼：避世血族</t>
-  </si>
-  <si>
-    <t>注意和第二部名字的区别</t>
-  </si>
-  <si>
-    <t>Vampire: The Masquerade – Bloodlines</t>
-  </si>
-  <si>
-    <t>吸血鬼：避世血族 2</t>
-  </si>
-  <si>
-    <t>第一部的名字后面没有Bloodlines</t>
-  </si>
-  <si>
-    <t>Wasteland</t>
-  </si>
-  <si>
-    <t>废土</t>
-  </si>
-  <si>
-    <t>Wilderness Campaign</t>
-  </si>
-  <si>
-    <t>荒野战役</t>
-  </si>
-  <si>
-    <t>Windwalker</t>
-  </si>
-  <si>
-    <t>风行者</t>
-  </si>
-  <si>
-    <t>Wizard’s Crown</t>
-  </si>
-  <si>
-    <t>巫师神冠</t>
-  </si>
-  <si>
-    <t>Wizardry</t>
-  </si>
-  <si>
-    <t>巫术</t>
-  </si>
-  <si>
-    <t>Wizardry Gold</t>
-  </si>
-  <si>
-    <t>巫术 黄金版</t>
-  </si>
-  <si>
-    <t>Wizardry II: Knight of Diamonds</t>
-  </si>
-  <si>
-    <t>Wizardry III: Legacy of Llylgamyn</t>
-  </si>
-  <si>
-    <t>Wizardry VII: Crusaders of the Dark Savant</t>
-  </si>
-  <si>
-    <t>巫术 7：失落的迦地亚</t>
-  </si>
-  <si>
-    <t>World of Warcraft</t>
-  </si>
-  <si>
-    <t>魔兽世界</t>
-  </si>
-  <si>
-    <t>Zork</t>
-  </si>
-  <si>
-    <t>魔域帝国</t>
-  </si>
-  <si>
-    <t>Ultima</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tunnels of Doom</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>末日隧道</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ultima III: Exodus</t>
-  </si>
-  <si>
-    <t>创世纪 3：出埃及记</t>
-  </si>
-  <si>
-    <t>Dragon Quest</t>
-  </si>
-  <si>
-    <t>勇者斗恶龙</t>
-  </si>
-  <si>
-    <t>The Return of Heracles</t>
-  </si>
-  <si>
-    <t>赫拉克勒斯的归来</t>
-  </si>
-  <si>
-    <t>Fracas</t>
-  </si>
-  <si>
-    <t>纷争</t>
-  </si>
-  <si>
-    <t>Ali Baba and the Forty Thieves</t>
-  </si>
-  <si>
-    <t>阿里巴巴与四十大盗</t>
-  </si>
-  <si>
-    <t>The Oregon Trail</t>
-  </si>
-  <si>
-    <t>俄勒冈之路</t>
-  </si>
-  <si>
-    <t>Asteroids</t>
-  </si>
-  <si>
-    <t>小行星</t>
-  </si>
-  <si>
-    <t>Donkey Kong</t>
-  </si>
-  <si>
-    <t>大金刚</t>
-  </si>
-  <si>
-    <t>Mr. Do!</t>
-  </si>
-  <si>
-    <t>嘟先生</t>
-  </si>
-  <si>
-    <t>Centipede</t>
-  </si>
-  <si>
-    <t>蜈蚣</t>
-  </si>
-  <si>
-    <t>Wizard’s Castle</t>
-  </si>
-  <si>
-    <t>巫师城堡</t>
-  </si>
-  <si>
-    <t>SwordThrust</t>
-  </si>
-  <si>
-    <t>剑刺</t>
-  </si>
-  <si>
-    <t>Brogue</t>
-  </si>
-  <si>
-    <t>NetHack</t>
-  </si>
-  <si>
-    <t>迷宫骇客</t>
-  </si>
-  <si>
-    <t>Elona</t>
-  </si>
-  <si>
-    <t>伊洛纳</t>
-  </si>
-  <si>
-    <t>Angband</t>
-  </si>
-  <si>
-    <t>安格班德</t>
-  </si>
-  <si>
-    <t>Dungeon Crawl: Stone Soup (DCSS)</t>
-  </si>
-  <si>
-    <t>地城探宝：石头汤 / 深入地下城之石头汤</t>
-  </si>
-  <si>
-    <t>地下城主 / 地牢大师</t>
-  </si>
-  <si>
-    <t>Colossal Cave Adventure / Colossal Cave</t>
-  </si>
-  <si>
-    <t>Wizardry: Proving Grounds of the Mad Overlord</t>
-  </si>
-  <si>
-    <t>巫术1</t>
-  </si>
-  <si>
-    <t>巫术 2：钻石骑士</t>
-  </si>
-  <si>
-    <t>巫术 3：利佳敏的遗产</t>
-  </si>
-  <si>
-    <t>Wizardry: Story of Llylgamyn</t>
-  </si>
-  <si>
-    <t>巫术：利佳敏轶事</t>
-  </si>
-  <si>
-    <t>日本 SNES 提供的“巫术三部曲重置版”</t>
-  </si>
-  <si>
-    <t>巫术：狂王的试炼场</t>
+    <r>
+      <t>魔法门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 4：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星云之谜</t>
+    </r>
+  </si>
+  <si>
+    <t>Wizard Wars</t>
+  </si>
+  <si>
+    <t>巫师战争</t>
+  </si>
+  <si>
+    <t>月石：苦难骑士</t>
   </si>
 </sst>
 </file>
@@ -1355,11 +1350,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1390,66 +1385,66 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1462,26 +1457,26 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
+        <v>253</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>262</v>
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1517,53 +1512,56 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
+      <c r="A19" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
+      <c r="A21" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1577,12 +1575,9 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1609,23 +1604,23 @@
       <c r="B29" t="s">
         <v>46</v>
       </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1634,45 +1629,45 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2" ht="15.75">
+      <c r="A35" t="s">
         <v>56</v>
       </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>58</v>
       </c>
       <c r="B36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -1680,894 +1675,913 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>272</v>
+      </c>
+      <c r="B41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
+      <c r="B43" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="1" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>280</v>
-      </c>
-      <c r="B43" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="B44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B44" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>277</v>
-      </c>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" t="s">
-        <v>104</v>
-      </c>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="C63" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="C67" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C68" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" t="s">
         <v>116</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C70" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17.25">
+      <c r="A73" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17.25">
-      <c r="A74" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>130</v>
+        <v>297</v>
+      </c>
+      <c r="C75" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C76" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>139</v>
+      <c r="A79" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="B80" s="4" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>275</v>
-      </c>
+      <c r="A81" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82" s="1"/>
+        <v>136</v>
+      </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="C84" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C85" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C94" s="1"/>
+        <v>161</v>
+      </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B96" s="1" t="s">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B98" s="1" t="s">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B99" s="1" t="s">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B100" s="1" t="s">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B101" s="1" t="s">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B102" s="1" t="s">
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B103" s="1" t="s">
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B104" s="1" t="s">
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B105" s="1" t="s">
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B107" s="1" t="s">
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B108" s="1" t="s">
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17.25">
       <c r="A116" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="4" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>250</v>
+        <v>292</v>
+      </c>
+      <c r="C123" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C124" s="1"/>
+      <c r="A124" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C125" s="1"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C126" s="1"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C127" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C128" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
+      </c>
+      <c r="C129" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>270</v>
+      <c r="A132" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>233</v>
+      <c r="A133" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>235</v>
+      <c r="A134" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C138" s="1"/>
+        <v>278</v>
+      </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C140" t="s">
-        <v>290</v>
-      </c>
+      <c r="A140" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>243</v>
+        <v>283</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>245</v>
+      <c r="A142" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C142" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C142">
-    <sortCondition ref="A2:A142"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C144">
+    <sortCondition ref="A2:A144"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1534DFD-0629-4377-9BDA-E96D68C9E923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A64609-032A-41E9-9FCB-71578594164D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="3795" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="352">
   <si>
     <t>原名</t>
   </si>
@@ -1110,6 +1110,57 @@
   </si>
   <si>
     <t>黑银传说</t>
+  </si>
+  <si>
+    <t>Phantasie II</t>
+  </si>
+  <si>
+    <t>幽灵战士 2</t>
+  </si>
+  <si>
+    <t>Phantasie III: The Wrath of Nikademus</t>
+  </si>
+  <si>
+    <t>幽灵战士 3：尼科德穆斯之怒</t>
+  </si>
+  <si>
+    <t>Phantasie V</t>
+  </si>
+  <si>
+    <t>幽灵战士 5</t>
+  </si>
+  <si>
+    <t>Phantasie IV: Birth of Heroes</t>
+  </si>
+  <si>
+    <t>幽灵战士 4：英雄诞生</t>
+  </si>
+  <si>
+    <t>Ultima IV Part 2: Dude, where’s my Avatar?</t>
+  </si>
+  <si>
+    <t>创世纪 4 第二段：兄弟，我的圣者呢？</t>
+  </si>
+  <si>
+    <t>Ultima V</t>
+  </si>
+  <si>
+    <t>创世纪 5</t>
+  </si>
+  <si>
+    <t>Rings of Zilfin</t>
+  </si>
+  <si>
+    <t>神戒传奇</t>
+  </si>
+  <si>
+    <t>King's Quest</t>
+  </si>
+  <si>
+    <t>国王密使</t>
+  </si>
+  <si>
+    <t>The Magic Candle</t>
   </si>
 </sst>
 </file>
@@ -1452,11 +1503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2039,816 +2090,888 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>132</v>
+      <c r="A68" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="C70" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="4" t="s">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="4" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C77" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="C78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="17.25">
-      <c r="A81" s="3" t="s">
+    <row r="82" spans="1:3" ht="17.25">
+      <c r="A82" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C83" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="C84" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="5" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B88" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C88" t="s">
-        <v>316</v>
-      </c>
+      <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C89" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C91" s="3"/>
+        <v>171</v>
+      </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>175</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C93" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="C94" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>185</v>
+      <c r="A97" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>187</v>
+      <c r="A98" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>189</v>
+      <c r="A99" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C100" s="3"/>
+      <c r="A100" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>318</v>
+      <c r="A103" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>320</v>
+      <c r="A104" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C107" t="s">
-        <v>201</v>
+      <c r="A107" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>203</v>
+      <c r="A108" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>207</v>
+      <c r="A111" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C113" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="2" t="s">
+    <row r="119" spans="1:3">
+      <c r="A119" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="2" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="2" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="4" t="s">
+    <row r="122" spans="1:3">
+      <c r="A122" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="2" t="s">
+    <row r="123" spans="1:3">
+      <c r="A123" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B123" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="2" t="s">
+    <row r="124" spans="1:3">
+      <c r="A124" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="4" t="s">
+    <row r="125" spans="1:3">
+      <c r="A125" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B125" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="3" t="s">
+    <row r="126" spans="1:3">
+      <c r="A126" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="3" t="s">
+    <row r="127" spans="1:3">
+      <c r="A127" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="3" t="s">
+    <row r="128" spans="1:3">
+      <c r="A128" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="3" t="s">
+    <row r="129" spans="1:3">
+      <c r="A129" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="3" t="s">
+    <row r="130" spans="1:3">
+      <c r="A130" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="3" t="s">
+    <row r="131" spans="1:3">
+      <c r="A131" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B131" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="3" t="s">
+    <row r="132" spans="1:3">
+      <c r="A132" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17.25">
-      <c r="A129" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C134" s="3"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>253</v>
+      <c r="A134" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="17.25">
+      <c r="A135" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C136" s="3"/>
+      <c r="A136" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="4" t="s">
-        <v>256</v>
+        <v>351</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="4" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="4" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C140" s="3"/>
+        <v>249</v>
+      </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="3" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>308</v>
+      <c r="A142" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="A143" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C144" t="s">
-        <v>269</v>
+      <c r="A144" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C145" t="s">
-        <v>272</v>
+      <c r="A145" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>274</v>
+      <c r="A146" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>276</v>
+      <c r="A147" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="3" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>278</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="4" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>282</v>
-      </c>
+      <c r="A150" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>284</v>
+      <c r="A151" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="3" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C153" s="3"/>
+        <v>268</v>
+      </c>
+      <c r="C153" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="3" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C154" s="3"/>
+        <v>271</v>
+      </c>
+      <c r="C154" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="3" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C155" s="3"/>
+        <v>274</v>
+      </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="3" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="3" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C157" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C166" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B167" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C167" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="3" t="s">
+    <row r="168" spans="1:3">
+      <c r="A168" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B168" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="4" t="s">
+    <row r="169" spans="1:3">
+      <c r="A169" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B169" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C169" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="3" t="s">
+    <row r="170" spans="1:3">
+      <c r="A170" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B170" s="3" t="s">
         <v>304</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C161">
-    <sortCondition ref="A2:A161"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C170">
+    <sortCondition ref="A2:A170"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A64609-032A-41E9-9FCB-71578594164D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281372E1-7372-43B3-9128-3C48ED5CA084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="3795" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="3150" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="359">
   <si>
     <t>原名</t>
   </si>
@@ -35,6 +35,12 @@
     <t>译名来源/备注</t>
   </si>
   <si>
+    <t>2400 A.D.</t>
+  </si>
+  <si>
+    <t>无需翻译</t>
+  </si>
+  <si>
     <t>Advanced Dungeon and Dragon</t>
   </si>
   <si>
@@ -65,6 +71,18 @@
     <t>阿拉丁传奇：精灵的诅咒</t>
   </si>
   <si>
+    <t>Alter Ego</t>
+  </si>
+  <si>
+    <t>另我</t>
+  </si>
+  <si>
+    <t>Alternate Reality: The City</t>
+  </si>
+  <si>
+    <t>另类实境：城市</t>
+  </si>
+  <si>
     <t>Ancient Domains of Mystery (ADOM)</t>
   </si>
   <si>
@@ -122,6 +140,12 @@
     <t>博德之门</t>
   </si>
   <si>
+    <t>Bard's Tale</t>
+  </si>
+  <si>
+    <t>冰城传奇</t>
+  </si>
+  <si>
     <t>Beneath Apple Manor</t>
   </si>
   <si>
@@ -164,6 +188,18 @@
     <t>飞车大战</t>
   </si>
   <si>
+    <t>Carmen Sandiego</t>
+  </si>
+  <si>
+    <t>神偷卡门</t>
+  </si>
+  <si>
+    <t>Castle of the Winds</t>
+  </si>
+  <si>
+    <t>风堡传奇</t>
+  </si>
+  <si>
     <t>Centipede</t>
   </si>
   <si>
@@ -201,6 +237,12 @@
   </si>
   <si>
     <t>黑暗之魂</t>
+  </si>
+  <si>
+    <t>Deathlord</t>
+  </si>
+  <si>
+    <t>死亡领主</t>
   </si>
   <si>
     <t>Defender</t>
@@ -455,6 +497,12 @@
     <t>这是暗黑的一个拓展包</t>
   </si>
   <si>
+    <t>King's Quest</t>
+  </si>
+  <si>
+    <t>国王密使</t>
+  </si>
+  <si>
     <t>Knights of Legend</t>
   </si>
   <si>
@@ -479,6 +527,12 @@
     <t>镭射小队</t>
   </si>
   <si>
+    <t>Legacy of the Ancients</t>
+  </si>
+  <si>
+    <t>古者遗产</t>
+  </si>
+  <si>
     <t>Little Wars</t>
   </si>
   <si>
@@ -492,6 +546,12 @@
   </si>
   <si>
     <t>法师：超凡入圣</t>
+  </si>
+  <si>
+    <t>Magic Candle</t>
+  </si>
+  <si>
+    <t>魔法之烛</t>
   </si>
   <si>
     <t>Magic Realm</t>
@@ -528,20 +588,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>魔法门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 4：</t>
     </r>
     <r>
       <rPr>
@@ -550,7 +600,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>星云之谜</t>
+      <t xml:space="preserve"> 4：星云之谜</t>
     </r>
   </si>
   <si>
@@ -587,12 +637,24 @@
     <t>摩瑞亚</t>
   </si>
   <si>
+    <t>有两款游戏同名，1983 年 &amp; 1975 年 PLATO 版本</t>
+  </si>
+  <si>
     <t>Mr. Do!</t>
   </si>
   <si>
     <t>嘟先生</t>
   </si>
   <si>
+    <t>Multiplayer-Angband</t>
+  </si>
+  <si>
+    <t>M 安格班</t>
+  </si>
+  <si>
+    <t>暂定名称，可以修订</t>
+  </si>
+  <si>
     <t>NetHack</t>
   </si>
   <si>
@@ -635,6 +697,30 @@
     <t>幽灵战士</t>
   </si>
   <si>
+    <t>Phantasie II</t>
+  </si>
+  <si>
+    <t>幽灵战士 2</t>
+  </si>
+  <si>
+    <t>Phantasie III: The Wrath of Nikademus</t>
+  </si>
+  <si>
+    <t>幽灵战士 3：尼科德穆斯之怒</t>
+  </si>
+  <si>
+    <t>Phantasie IV: Birth of Heroes</t>
+  </si>
+  <si>
+    <t>幽灵战士 4：英雄诞生</t>
+  </si>
+  <si>
+    <t>Phantasie V</t>
+  </si>
+  <si>
+    <t>幽灵战士 5</t>
+  </si>
+  <si>
     <t>Pitfall</t>
   </si>
   <si>
@@ -677,12 +763,30 @@
     <t>荣耀任务：黑暗之影</t>
   </si>
   <si>
+    <t>Questron</t>
+  </si>
+  <si>
+    <t>魔界神兵</t>
+  </si>
+  <si>
+    <t>Questron II</t>
+  </si>
+  <si>
+    <t>魔界神兵 2</t>
+  </si>
+  <si>
     <t>Rampart</t>
   </si>
   <si>
     <t>领国战役</t>
   </si>
   <si>
+    <t>Rings of Zilfin</t>
+  </si>
+  <si>
+    <t>神戒传奇</t>
+  </si>
+  <si>
     <t>River Raid</t>
   </si>
   <si>
@@ -701,6 +805,12 @@
     <t>江湖</t>
   </si>
   <si>
+    <t>Shards of Spring</t>
+  </si>
+  <si>
+    <t>春之碎片</t>
+  </si>
+  <si>
     <t>Space Invaders</t>
   </si>
   <si>
@@ -798,9 +908,6 @@
   </si>
   <si>
     <t>The Bard’s Tale</t>
-  </si>
-  <si>
-    <t>冰城传奇</t>
   </si>
   <si>
     <t>The Dungeon</t>
@@ -822,9 +929,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>上古卷轴 3</t>
     </r>
@@ -839,6 +945,15 @@
     </r>
   </si>
   <si>
+    <t>The Legend of Blacksilver</t>
+  </si>
+  <si>
+    <t>黑银传说</t>
+  </si>
+  <si>
+    <t>The Magic Candle</t>
+  </si>
+  <si>
     <t>The Oregon Trail</t>
   </si>
   <si>
@@ -884,24 +999,48 @@
     <t>Ultima 的重制版</t>
   </si>
   <si>
+    <t>Ultima II: Revenge of the Enchantress</t>
+  </si>
+  <si>
+    <t>创世纪 2：女巫的复仇</t>
+  </si>
+  <si>
     <t>Ultima III: Exodus</t>
   </si>
   <si>
     <t>创世纪 3：出埃及记</t>
   </si>
   <si>
+    <t>Ultima IV Part 2: Dude, where’s my Avatar?</t>
+  </si>
+  <si>
+    <t>创世纪 4 第二段：兄弟，我的圣者呢？</t>
+  </si>
+  <si>
     <t>Ultima IV: Quest of the Avatar</t>
   </si>
   <si>
     <t>创世纪 4：圣者的传奇</t>
   </si>
   <si>
+    <t>Ultima V</t>
+  </si>
+  <si>
+    <t>创世纪 5</t>
+  </si>
+  <si>
     <t>Ultima VI: The False Prophet</t>
   </si>
   <si>
     <t>创世纪 6：虚伪先知</t>
   </si>
   <si>
+    <t>Ultima: Escape from Mt. Drash</t>
+  </si>
+  <si>
+    <t>创世纪：德拉什山逃亡</t>
+  </si>
+  <si>
     <t>Valkyria Chronicles</t>
   </si>
   <si>
@@ -1016,151 +1155,22 @@
     <t>魔兽世界</t>
   </si>
   <si>
+    <t>Zelazny Angband</t>
+  </si>
+  <si>
+    <t>Z 安格班德</t>
+  </si>
+  <si>
     <t>Zork</t>
   </si>
   <si>
     <t>魔域帝国</t>
   </si>
   <si>
-    <t>Ultima II: Revenge of the Enchantress</t>
-  </si>
-  <si>
-    <t>创世纪 2：女巫的复仇</t>
-  </si>
-  <si>
-    <t>Ultima: Escape from Mt. Drash</t>
-  </si>
-  <si>
-    <t>创世纪：德拉什山逃亡</t>
-  </si>
-  <si>
-    <t>有两款游戏同名，1983 年 &amp; 1975 年 PLATO 版本</t>
-  </si>
-  <si>
-    <t>Castle of the Winds</t>
-  </si>
-  <si>
-    <t>风堡传奇</t>
-  </si>
-  <si>
-    <t>Zelazny Angband</t>
-  </si>
-  <si>
-    <t>Z 安格班德</t>
-  </si>
-  <si>
-    <t>Multiplayer-Angband</t>
-  </si>
-  <si>
-    <t>M 安格班</t>
-  </si>
-  <si>
-    <t>暂定名称，可以修订</t>
-  </si>
-  <si>
-    <t>Questron</t>
-  </si>
-  <si>
-    <t>魔界神兵</t>
-  </si>
-  <si>
-    <t>Questron II</t>
-  </si>
-  <si>
-    <t>魔界神兵 2</t>
-  </si>
-  <si>
-    <t>Carmen Sandiego</t>
-  </si>
-  <si>
-    <t>神偷卡门</t>
-  </si>
-  <si>
-    <t>Shards of Spring</t>
-  </si>
-  <si>
-    <t>春之碎片</t>
-  </si>
-  <si>
-    <t>2400 A.D.</t>
-  </si>
-  <si>
-    <t>无需翻译</t>
-  </si>
-  <si>
-    <t>Magic Candle</t>
-  </si>
-  <si>
-    <t>魔法之烛</t>
-  </si>
-  <si>
-    <t>Deathlord</t>
-  </si>
-  <si>
-    <t>死亡领主</t>
-  </si>
-  <si>
-    <t>Legacy of the Ancients</t>
-  </si>
-  <si>
-    <t>古者遗产</t>
-  </si>
-  <si>
-    <t>The Legend of Blacksilver</t>
-  </si>
-  <si>
-    <t>黑银传说</t>
-  </si>
-  <si>
-    <t>Phantasie II</t>
-  </si>
-  <si>
-    <t>幽灵战士 2</t>
-  </si>
-  <si>
-    <t>Phantasie III: The Wrath of Nikademus</t>
-  </si>
-  <si>
-    <t>幽灵战士 3：尼科德穆斯之怒</t>
-  </si>
-  <si>
-    <t>Phantasie V</t>
-  </si>
-  <si>
-    <t>幽灵战士 5</t>
-  </si>
-  <si>
-    <t>Phantasie IV: Birth of Heroes</t>
-  </si>
-  <si>
-    <t>幽灵战士 4：英雄诞生</t>
-  </si>
-  <si>
-    <t>Ultima IV Part 2: Dude, where’s my Avatar?</t>
-  </si>
-  <si>
-    <t>创世纪 4 第二段：兄弟，我的圣者呢？</t>
-  </si>
-  <si>
-    <t>Ultima V</t>
-  </si>
-  <si>
-    <t>创世纪 5</t>
-  </si>
-  <si>
-    <t>Rings of Zilfin</t>
-  </si>
-  <si>
-    <t>神戒传奇</t>
-  </si>
-  <si>
-    <t>King's Quest</t>
-  </si>
-  <si>
-    <t>国王密使</t>
-  </si>
-  <si>
-    <t>The Magic Candle</t>
+    <t>Swords and Sorcery</t>
+  </si>
+  <si>
+    <t>剑与魔法</t>
   </si>
 </sst>
 </file>
@@ -1176,6 +1186,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -1183,12 +1199,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -1220,17 +1230,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1503,1475 +1517,1582 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="65.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C2" t="s">
-        <v>326</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
+      <c r="A9" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
+      <c r="A17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="3"/>
+      <c r="A20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>40</v>
+      <c r="A21" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>322</v>
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>310</v>
+      <c r="A25" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>311</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
+      <c r="A29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>329</v>
+      <c r="A32" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>330</v>
+        <v>65</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="3"/>
+      <c r="A33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>63</v>
+      <c r="A35" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" t="s">
-        <v>65</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="3"/>
+      <c r="A36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>69</v>
+      <c r="A37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
+      <c r="A38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75">
-      <c r="A41" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>78</v>
+      <c r="A42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>80</v>
+      <c r="A43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="4" t="s">
-        <v>81</v>
+      <c r="A44" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>84</v>
+      <c r="A45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>86</v>
+      <c r="A46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>90</v>
+      <c r="A48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>92</v>
+      <c r="A49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>94</v>
+      <c r="A50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>96</v>
+      <c r="A51" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="4" t="s">
-        <v>97</v>
+      <c r="A52" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="3"/>
+      <c r="A53" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="4" t="s">
-        <v>101</v>
+      <c r="A54" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" t="s">
-        <v>107</v>
-      </c>
+      <c r="A56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="3" t="s">
-        <v>108</v>
+      <c r="A57" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>109</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>111</v>
+      <c r="A58" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>113</v>
+      <c r="A59" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>115</v>
+      <c r="A60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="4" t="s">
-        <v>116</v>
+      <c r="A61" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="A62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>121</v>
+      <c r="A63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="3"/>
+      <c r="A65" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="5"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="3"/>
+      <c r="A66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="A67" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="4" t="s">
-        <v>349</v>
+      <c r="A68" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>350</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="A69" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" t="s">
-        <v>134</v>
+      <c r="A70" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="5"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="3"/>
+      <c r="A72" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="4" t="s">
-        <v>331</v>
+      <c r="A73" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>332</v>
+        <v>149</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="A74" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A75" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="3" t="s">
-        <v>142</v>
+      <c r="A76" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="4" t="s">
-        <v>327</v>
+      <c r="A77" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>328</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C78" t="s">
-        <v>146</v>
+      <c r="A78" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>148</v>
+      <c r="A79" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>150</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="5"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="17.25">
-      <c r="A82" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C82" s="3"/>
+      <c r="A81" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="A83" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" s="5"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C84" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="A84" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" spans="1:3" ht="17.25">
+      <c r="A85" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" s="4"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="A86" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="5"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C87" t="s">
-        <v>309</v>
+      <c r="A87" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C88" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="5"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="4" t="s">
-        <v>314</v>
+      <c r="A89" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C89" t="s">
-        <v>316</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C89" s="5"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="4" t="s">
-        <v>168</v>
+      <c r="A90" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>169</v>
+        <v>185</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="A91" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="4"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C92" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>175</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" s="5"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C94" t="s">
-        <v>159</v>
-      </c>
+      <c r="A94" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="5"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B95" s="2" t="s">
+      <c r="A95" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="4" t="s">
-        <v>337</v>
+      <c r="A98" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>338</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="4" t="s">
-        <v>341</v>
+      <c r="A99" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>342</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>340</v>
-      </c>
+      <c r="A100" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" s="5"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>183</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="5"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>185</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C102" s="5"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="3" t="s">
-        <v>186</v>
+      <c r="A103" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>187</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C103" s="5"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="A104" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" s="5"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C105" s="3"/>
+      <c r="A105" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" s="5"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="A106" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106" s="5"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="A107" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" s="5"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="4" t="s">
-        <v>317</v>
+      <c r="A108" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>318</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="4" t="s">
-        <v>319</v>
+      <c r="A109" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>320</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C110" s="3"/>
+      <c r="A110" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" s="5"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>348</v>
-      </c>
+      <c r="A111" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C111" s="5"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>199</v>
+        <v>230</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C113" t="s">
-        <v>201</v>
-      </c>
+      <c r="A113" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" s="4"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>203</v>
+        <v>234</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="4" t="s">
-        <v>323</v>
+      <c r="A115" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>205</v>
+      <c r="A116" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>207</v>
+      <c r="A117" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C118" s="5"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="A119" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" s="5"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>213</v>
+      <c r="A120" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="A121" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C121" s="5"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="4" t="s">
-        <v>216</v>
+      <c r="A122" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>217</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C122" s="5"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>219</v>
+      <c r="A123" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>221</v>
+      <c r="A124" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>223</v>
+      <c r="A125" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>225</v>
+      <c r="A126" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>227</v>
+      <c r="A127" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>229</v>
+      <c r="A128" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>231</v>
+      <c r="A129" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>233</v>
+      <c r="A130" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>235</v>
+      <c r="A131" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>237</v>
+      <c r="A132" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>239</v>
+      <c r="A133" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="17.25">
-      <c r="A135" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="A134" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C135" s="5"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C137" s="5"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C138" s="5"/>
+    </row>
+    <row r="139" spans="1:3" ht="17.25">
+      <c r="A139" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C140" s="5"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C141" s="5"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C142" s="5"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143" s="5"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C144" s="5"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C146" s="5"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C147" s="4"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C149" s="5"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C151" s="5"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C152" s="4"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C153" s="5"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C154" s="4"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C155" s="5"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C156" s="5"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C160" s="5"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C162" s="5"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C163" s="5"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B164" s="4" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="4" t="s">
+      <c r="C164" s="5"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C165" s="5"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C166" s="4"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C167" s="4"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C168" s="4"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C141" s="3"/>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C143" s="3"/>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C148" s="3"/>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C150" s="3"/>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C153" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C154" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C162" s="3"/>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C163" s="3"/>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C164" s="3"/>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C166" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C169" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>304</v>
-      </c>
+      <c r="B172" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C174" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C170">
-    <sortCondition ref="A2:A170"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C174">
+    <sortCondition ref="A2:A174"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281372E1-7372-43B3-9128-3C48ED5CA084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A233E25A-B5AB-40EF-BF69-CE79EA50E45B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="3150" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="397">
   <si>
     <t>原名</t>
   </si>
@@ -1171,6 +1171,120 @@
   </si>
   <si>
     <t>剑与魔法</t>
+  </si>
+  <si>
+    <t>Ys: The Vanished Omens</t>
+  </si>
+  <si>
+    <t>伊苏：失落的古代王国</t>
+  </si>
+  <si>
+    <t>Hydlide</t>
+  </si>
+  <si>
+    <t>梦幻仙境</t>
+  </si>
+  <si>
+    <t>Märchen Veil</t>
+  </si>
+  <si>
+    <t>威尔童话</t>
+  </si>
+  <si>
+    <t>Dragon Slayer</t>
+  </si>
+  <si>
+    <t>屠龙剑</t>
+  </si>
+  <si>
+    <t>Xanadu</t>
+  </si>
+  <si>
+    <t>雷诺尼都纪事</t>
+  </si>
+  <si>
+    <t>Ys Eternal</t>
+  </si>
+  <si>
+    <t>永远的伊苏</t>
+  </si>
+  <si>
+    <t>伊苏的重制版</t>
+  </si>
+  <si>
+    <t>Ys III: Wanderers from Ys</t>
+  </si>
+  <si>
+    <t>伊苏 3：伊苏归来的漂泊者</t>
+  </si>
+  <si>
+    <t>Ys IV: The Dawn of Ys</t>
+  </si>
+  <si>
+    <t>伊苏 4：伊苏的黎明</t>
+  </si>
+  <si>
+    <t>伊苏4的其中一个外包版本</t>
+  </si>
+  <si>
+    <t>Ys IV: Mask of The Sun</t>
+  </si>
+  <si>
+    <t>伊苏 4：太阳的假面</t>
+  </si>
+  <si>
+    <t>伊苏：塞尔塞塔的树海</t>
+  </si>
+  <si>
+    <t>伊苏4的官方版本，《太阳的假面》的重制版</t>
+  </si>
+  <si>
+    <t>Ys: Foliage Ocean in Celceta/Memories of Celceta</t>
+  </si>
+  <si>
+    <t>Ys VI: The Ark of Napishtim</t>
+  </si>
+  <si>
+    <t>伊苏 6：纳比斯汀的方舟</t>
+  </si>
+  <si>
+    <t>Oath in Felghana</t>
+  </si>
+  <si>
+    <t>伊苏：菲尔盖纳之誓约</t>
+  </si>
+  <si>
+    <t>Ys Origin</t>
+  </si>
+  <si>
+    <t>伊苏：起源</t>
+  </si>
+  <si>
+    <t>伊苏3的重制</t>
+  </si>
+  <si>
+    <t>原版分为两部发行：《伊苏：失落的古代王国 序章》（Ancient Ys Vanished/The Vanished Omens，统称“伊苏 1”）和《伊苏 2：失落的古代王国 终章》（The Final Chapter，统称“伊苏 2”）</t>
+  </si>
+  <si>
+    <t>SimCity 4</t>
+  </si>
+  <si>
+    <t>模拟城市 4</t>
+  </si>
+  <si>
+    <t>Sims 2</t>
+  </si>
+  <si>
+    <t>模拟人生 2</t>
+  </si>
+  <si>
+    <t>The Faery Tale Adventure</t>
+  </si>
+  <si>
+    <t>仙境传说</t>
+  </si>
+  <si>
+    <t>还可以译为“仙境故事”、“幻境传说”等，但优先使用“仙境传说”</t>
   </si>
 </sst>
 </file>
@@ -1517,18 +1631,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="65.42578125" customWidth="1"/>
     <col min="2" max="2" width="40.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="193.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1956,1143 +2070,1292 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>98</v>
+      <c r="A48" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="5"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2" t="s">
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="5" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2" t="s">
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="5"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="C65" s="5"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C68" s="4"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C69" s="4"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="A76" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>158</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>49</v>
+      <c r="A78" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" s="5"/>
+      <c r="A80" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>168</v>
+      <c r="A82" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C82" s="5"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" s="5"/>
+        <v>165</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="1:3" ht="17.25">
+      <c r="A84" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C85" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="C85" s="5"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C86" s="5"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>172</v>
+      </c>
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" spans="1:3" ht="17.25">
       <c r="A88" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C88" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="C88" s="4"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C89" s="5"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="6" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B94" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="2" t="s">
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C93" s="5"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C94" s="5"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>199</v>
-      </c>
+      <c r="C96" s="5"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>179</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C97" s="5"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>203</v>
+      <c r="A98" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="2" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C100" s="5"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="2" t="s">
+      <c r="C104" s="5"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C101" s="5"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="2" t="s">
+      <c r="C105" s="5"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C102" s="5"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="2" t="s">
+      <c r="C106" s="5"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C103" s="5"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C104" s="5"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C105" s="5"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C106" s="5"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="C107" s="5"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="5" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C108" s="4"/>
+        <v>215</v>
+      </c>
+      <c r="C108" s="5"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C109" s="5"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C110" s="5"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>229</v>
+      <c r="A111" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="C111" s="5"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>231</v>
-      </c>
+      <c r="A112" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" s="4"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C113" s="4"/>
+        <v>225</v>
+      </c>
+      <c r="C113" s="5"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>235</v>
-      </c>
+      <c r="A114" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" s="5"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>237</v>
-      </c>
+      <c r="A115" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" s="5"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>239</v>
+      <c r="A116" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>241</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C117" s="4"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C118" s="5"/>
+        <v>235</v>
+      </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C119" s="5"/>
+        <v>237</v>
+      </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C121" s="5"/>
+        <v>241</v>
+      </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>251</v>
+      <c r="A122" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="C122" s="5"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>253</v>
+      <c r="A123" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>255</v>
+      <c r="A124" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>257</v>
-      </c>
+      <c r="A125" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C125" s="5"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="5" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>261</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C127" s="5"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="A128" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C128" s="5"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="2" t="s">
-        <v>262</v>
+      <c r="A129" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>267</v>
+      <c r="A131" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="5" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>273</v>
+      <c r="A134" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="5" t="s">
-        <v>274</v>
+      <c r="A135" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C135" s="5"/>
+        <v>263</v>
+      </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>39</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C137" s="5"/>
+        <v>267</v>
+      </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="5" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C138" s="5"/>
-    </row>
-    <row r="139" spans="1:3" ht="17.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C140" s="5"/>
+      <c r="A140" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>163</v>
+      <c r="A141" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="C141" s="5"/>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C142" s="5"/>
+      <c r="A142" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>289</v>
+      <c r="A143" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="C143" s="5"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="5" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" ht="17.25">
       <c r="A145" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C145" s="4"/>
+        <v>282</v>
+      </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C146" s="5"/>
+      <c r="A146" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C147" s="4"/>
+      <c r="A147" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C147" s="5"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>300</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C148" s="5"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C149" s="5"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>304</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C150" s="5"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>306</v>
+      <c r="A151" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="C151" s="5"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="5" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C152" s="4"/>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="2" t="s">
-        <v>309</v>
+      <c r="A153" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C153" s="5"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="5" t="s">
-        <v>311</v>
+      <c r="A154" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C154" s="4"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C155" s="5"/>
+        <v>299</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>316</v>
+      <c r="A156" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="C156" s="5"/>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>319</v>
+      <c r="A157" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>322</v>
-      </c>
+      <c r="A158" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C158" s="5"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="5" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>324</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C159" s="4"/>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>326</v>
+      <c r="A160" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="C160" s="5"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="5" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>328</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C161" s="4"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="C162" s="5"/>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>332</v>
+      <c r="A163" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="C163" s="5"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="5" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C164" s="5"/>
+        <v>318</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="5" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C165" s="5"/>
+        <v>321</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="5" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C166" s="4"/>
+        <v>324</v>
+      </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="5" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C167" s="4"/>
+        <v>326</v>
+      </c>
+      <c r="C167" s="5"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="5" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C168" s="4"/>
+        <v>328</v>
+      </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>344</v>
-      </c>
+      <c r="A169" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C169" s="5"/>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>347</v>
-      </c>
+      <c r="A170" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C170" s="5"/>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>350</v>
-      </c>
+      <c r="A171" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C171" s="5"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="5" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>352</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C172" s="5"/>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>191</v>
-      </c>
+      <c r="A173" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C173" s="4"/>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C174" s="4"/>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C175" s="4"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B190" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C174" s="5"/>
+      <c r="C190" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C174">
-    <sortCondition ref="A2:A174"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C190">
+    <sortCondition ref="A2:A190"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A233E25A-B5AB-40EF-BF69-CE79EA50E45B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E04D666-EF88-4FCA-8903-F46753C89A49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="3150" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="411">
   <si>
     <t>原名</t>
   </si>
@@ -1285,6 +1285,48 @@
   </si>
   <si>
     <t>还可以译为“仙境故事”、“幻境传说”等，但优先使用“仙境传说”</t>
+  </si>
+  <si>
+    <t>Halls of the Dead: Faery Tale Adventure II</t>
+  </si>
+  <si>
+    <t>亡者大厅：仙境传说 2</t>
+  </si>
+  <si>
+    <t>原创翻译，注意近似翻译《死亡之屋》（The House of the Dead）是SEGA旗下一款FPS游戏的名称</t>
+  </si>
+  <si>
+    <t>Starflight</t>
+  </si>
+  <si>
+    <t>星航</t>
+  </si>
+  <si>
+    <t>Starflight 2：Trade Routes of the Cloud Nebula</t>
+  </si>
+  <si>
+    <t>星航 2：星云商路</t>
+  </si>
+  <si>
+    <t>Protostar</t>
+  </si>
+  <si>
+    <t>原恒星</t>
+  </si>
+  <si>
+    <t>《星航》第三部，但因为合约问题成为了独立游戏</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>质量效应</t>
+  </si>
+  <si>
+    <t>Dwarf Fortress</t>
+  </si>
+  <si>
+    <t>矮人要塞</t>
   </si>
 </sst>
 </file>
@@ -1631,11 +1673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A173" sqref="A173"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2144,1220 +2186,1274 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2" t="s">
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="5"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C69" s="4"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>144</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="5"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="A78" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>158</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C79" s="4"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>49</v>
+      <c r="A80" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C82" s="5"/>
+      <c r="A82" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>364</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="5"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" s="5"/>
-    </row>
-    <row r="88" spans="1:3" ht="17.25">
-      <c r="A88" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C88" s="4"/>
+      <c r="C88" s="5"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C89" s="5"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>172</v>
+      </c>
+      <c r="C90" s="5"/>
+    </row>
+    <row r="91" spans="1:3" ht="17.25">
       <c r="A91" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C91" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="C91" s="4"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="5"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" s="5"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B96" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="6" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B97" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C96" s="5"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C97" s="5"/>
+      <c r="C97" s="4"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>388</v>
+        <v>189</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C99" s="4"/>
+      <c r="A99" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" s="5"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>199</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C100" s="5"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>179</v>
+      <c r="A101" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>203</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C102" s="4"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C104" s="5"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C105" s="5"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C106" s="5"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C107" s="5"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="5"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" s="5"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C107" s="5"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C108" s="5"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C109" s="5"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="C110" s="5"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C111" s="5"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C112" s="4"/>
+        <v>217</v>
+      </c>
+      <c r="C112" s="5"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C113" s="5"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C114" s="5"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C115" s="5"/>
+      <c r="A115" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C115" s="4"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>231</v>
+        <v>404</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C117" s="4"/>
+        <v>225</v>
+      </c>
+      <c r="C117" s="5"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>235</v>
-      </c>
+      <c r="A118" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118" s="5"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>237</v>
-      </c>
+      <c r="A119" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119" s="5"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>239</v>
+      <c r="A120" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>241</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C121" s="4"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C122" s="5"/>
+        <v>235</v>
+      </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>391</v>
+      <c r="A123" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>393</v>
+      <c r="A124" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C125" s="5"/>
+        <v>241</v>
+      </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="A126" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126" s="5"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C127" s="5"/>
+      <c r="A127" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C128" s="5"/>
+      <c r="A128" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>253</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C129" s="5"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>257</v>
-      </c>
+      <c r="A131" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" s="5"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>259</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>358</v>
+      <c r="A134" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>269</v>
+      <c r="A138" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>271</v>
+      <c r="A139" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>273</v>
+      <c r="A140" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="5" t="s">
-        <v>274</v>
+      <c r="A141" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C141" s="5"/>
+        <v>263</v>
+      </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="5" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>39</v>
+        <v>265</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="5" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C143" s="5"/>
+        <v>267</v>
+      </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C147" s="5"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C149" s="5"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B150" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C144" s="5"/>
-    </row>
-    <row r="145" spans="1:3" ht="17.25">
-      <c r="A145" s="5" t="s">
+      <c r="C150" s="5"/>
+    </row>
+    <row r="151" spans="1:3" ht="17.25">
+      <c r="A151" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B151" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="2" t="s">
+    <row r="152" spans="1:3">
+      <c r="A152" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="2" t="s">
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B153" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C147" s="5"/>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="2" t="s">
+      <c r="C153" s="5"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B154" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C148" s="5"/>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C149" s="5"/>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C150" s="5"/>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C151" s="5"/>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C152" s="4"/>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C153" s="5"/>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C154" s="4"/>
+      <c r="C154" s="5"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>300</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C155" s="5"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C156" s="5"/>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>304</v>
-      </c>
+      <c r="A157" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C157" s="5"/>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C158" s="5"/>
+      <c r="A158" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C158" s="4"/>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C159" s="4"/>
+      <c r="A159" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C159" s="5"/>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C160" s="5"/>
+      <c r="A160" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C160" s="4"/>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C161" s="4"/>
+      <c r="A161" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C162" s="5"/>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C163" s="5"/>
+      <c r="A163" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>319</v>
-      </c>
+      <c r="A164" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C164" s="5"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="5" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>322</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C165" s="4"/>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="A166" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C166" s="5"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="5" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C167" s="5"/>
+        <v>312</v>
+      </c>
+      <c r="C167" s="4"/>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>328</v>
-      </c>
+      <c r="A168" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C168" s="5"/>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>330</v>
+      <c r="A169" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="C169" s="5"/>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C170" s="5"/>
+      <c r="A170" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="5" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C171" s="5"/>
+        <v>321</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C172" s="5"/>
+        <v>324</v>
+      </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C173" s="4"/>
+        <v>326</v>
+      </c>
+      <c r="C173" s="5"/>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C174" s="4"/>
+        <v>328</v>
+      </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C175" s="4"/>
+      <c r="A175" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C175" s="5"/>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>344</v>
-      </c>
+      <c r="A176" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C176" s="5"/>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="5" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>347</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C177" s="5"/>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>350</v>
-      </c>
+      <c r="A178" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C178" s="5"/>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="5" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>352</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C179" s="4"/>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="A180" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C180" s="4"/>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>371</v>
-      </c>
+      <c r="A181" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C181" s="4"/>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>373</v>
+      <c r="A182" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>376</v>
+      <c r="A183" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>376</v>
+        <v>348</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>387</v>
+      <c r="A185" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B195" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C195" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="5" t="s">
+    <row r="196" spans="1:3">
+      <c r="A196" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B196" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C190" s="5"/>
+      <c r="C196" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C190">
-    <sortCondition ref="A2:A190"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C196">
+    <sortCondition ref="A2:A196"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E04D666-EF88-4FCA-8903-F46753C89A49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48DCDB1-EFFF-44A0-AA8D-A8C750D759F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="3150" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="415">
   <si>
     <t>原名</t>
   </si>
@@ -1327,6 +1327,18 @@
   </si>
   <si>
     <t>矮人要塞</t>
+  </si>
+  <si>
+    <t>Chaos Strikes Back</t>
+  </si>
+  <si>
+    <t>混沌重临</t>
+  </si>
+  <si>
+    <t>Ultima Underworld</t>
+  </si>
+  <si>
+    <t>创世纪地下世界</t>
   </si>
 </sst>
 </file>
@@ -1673,11 +1685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1961,1497 +1973,1516 @@
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="5"/>
+      <c r="A31" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="5"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="5" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2" t="s">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="C60" s="4"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="5"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C66" s="5"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2" t="s">
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="5" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C75" s="5"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>150</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2" t="s">
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="5" t="s">
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88" s="5"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C89" s="5"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="5"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91" spans="1:3" ht="17.25">
-      <c r="A91" s="5" t="s">
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="1:3" ht="17.25">
+      <c r="A92" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C92" s="5"/>
+      <c r="C92" s="4"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>179</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C93" s="5"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C94" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C95" s="5"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B97" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="6" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C97" s="4"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>191</v>
-      </c>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C99" s="5"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="5" t="s">
+      <c r="C100" s="5"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C100" s="5"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="2" t="s">
+      <c r="C101" s="5"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C102" s="4"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>199</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C103" s="4"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C107" s="5"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C108" s="5"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C109" s="5"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C110" s="5"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C110" s="5"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="C111" s="5"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C112" s="5"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C113" s="5"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C114" s="5"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C115" s="5"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B116" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C115" s="4"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="2" t="s">
+      <c r="C116" s="4"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C117" s="5"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C118" s="5"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B119" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="C118" s="5"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="C119" s="5"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C120" s="5"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="5" t="s">
+    <row r="122" spans="1:3">
+      <c r="A122" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C121" s="4"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="2" t="s">
+      <c r="C122" s="4"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B126" s="4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C126" s="5"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>391</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C127" s="5"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C129" s="5"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>247</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C130" s="5"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C131" s="5"/>
+        <v>247</v>
+      </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>253</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C133" s="5"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B135" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="2" t="s">
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B136" s="3" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B138" s="4" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="8" t="s">
+    <row r="141" spans="1:3">
+      <c r="A141" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="2" t="s">
+    <row r="142" spans="1:3">
+      <c r="A142" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B142" s="4" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C147" s="5"/>
+        <v>273</v>
+      </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C148" s="5"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C149" s="5"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C150" s="5"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B151" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C150" s="5"/>
-    </row>
-    <row r="151" spans="1:3" ht="17.25">
-      <c r="A151" s="5" t="s">
+      <c r="C151" s="5"/>
+    </row>
+    <row r="152" spans="1:3" ht="17.25">
+      <c r="A152" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B152" s="4" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C153" s="5"/>
+        <v>394</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="C154" s="5"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>287</v>
+        <v>163</v>
       </c>
       <c r="C155" s="5"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C156" s="5"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B157" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="C156" s="5"/>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="C157" s="5"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C158" s="5"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B159" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C158" s="4"/>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="7" t="s">
+      <c r="C159" s="4"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B160" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C159" s="5"/>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="6" t="s">
+      <c r="C160" s="5"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B161" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C160" s="4"/>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="C161" s="4"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C162" s="5"/>
+        <v>299</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>304</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C163" s="5"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B165" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C164" s="5"/>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="5" t="s">
+      <c r="C165" s="5"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B166" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C165" s="4"/>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C166" s="5"/>
+      <c r="C166" s="4"/>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C167" s="4"/>
+      <c r="A167" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C168" s="5"/>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C169" s="5"/>
+        <v>312</v>
+      </c>
+      <c r="C169" s="4"/>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>319</v>
-      </c>
+      <c r="A170" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C170" s="5"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>322</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C171" s="5"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>324</v>
+        <v>318</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C173" s="5"/>
+        <v>321</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C175" s="5"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B176" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="2" t="s">
+    <row r="177" spans="1:3">
+      <c r="A177" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B177" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C175" s="5"/>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="2" t="s">
+      <c r="C177" s="5"/>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B178" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="C176" s="5"/>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C177" s="5"/>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>336</v>
       </c>
       <c r="C178" s="5"/>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C179" s="4"/>
+        <v>334</v>
+      </c>
+      <c r="C179" s="5"/>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C180" s="4"/>
+        <v>336</v>
+      </c>
+      <c r="C180" s="5"/>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C181" s="4"/>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>344</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C182" s="4"/>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>347</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C183" s="4"/>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>350</v>
+      <c r="A184" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="5" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>368</v>
+        <v>348</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>371</v>
+      <c r="A187" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B197" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C197" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="5" t="s">
+    <row r="198" spans="1:3">
+      <c r="A198" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B198" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C196" s="5"/>
+      <c r="C198" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C196">
-    <sortCondition ref="A2:A196"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C198">
+    <sortCondition ref="A2:A198"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48DCDB1-EFFF-44A0-AA8D-A8C750D759F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C30966B-5E37-4757-B786-7C2D61F4E977}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="3150" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="426">
   <si>
     <t>原名</t>
   </si>
@@ -1339,6 +1339,39 @@
   </si>
   <si>
     <t>创世纪地下世界</t>
+  </si>
+  <si>
+    <t>Pool of Darkness</t>
+  </si>
+  <si>
+    <t>黑暗之池</t>
+  </si>
+  <si>
+    <t>也有翻译成《魔池》的</t>
+  </si>
+  <si>
+    <t>Secret of the Silver Blade</t>
+  </si>
+  <si>
+    <t>银色匕首之谜</t>
+  </si>
+  <si>
+    <t>Curse of the Azure Bonds</t>
+  </si>
+  <si>
+    <t>青色枷锁的诅咒</t>
+  </si>
+  <si>
+    <t>《光芒之池》续作，金盒子系列第二部</t>
+  </si>
+  <si>
+    <t>《青色枷锁的诅咒》续作，金盒子系列第三部</t>
+  </si>
+  <si>
+    <t>Star Saga: One – Beyond the Boundary</t>
+  </si>
+  <si>
+    <t>星际传说：1 - 境界之外</t>
   </si>
 </sst>
 </file>
@@ -1685,11 +1718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2013,1476 +2046,1517 @@
       <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="5"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="5" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="C61" s="4"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="5"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C71" s="4"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="4"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="5" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>150</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="4"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2" t="s">
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="5" t="s">
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C89" s="5"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C90" s="5"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C91" s="5"/>
-    </row>
-    <row r="92" spans="1:3" ht="17.25">
-      <c r="A92" s="5" t="s">
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" spans="1:3" ht="17.25">
+      <c r="A93" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C92" s="4"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C93" s="5"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>179</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C94" s="5"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C95" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C96" s="5"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="6" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B99" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C98" s="4"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>191</v>
-      </c>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="5"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="5" t="s">
+      <c r="C101" s="5"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="5"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="2" t="s">
+      <c r="C102" s="5"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C103" s="4"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>199</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C104" s="4"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C108" s="5"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C109" s="5"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C110" s="5"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" s="5"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C111" s="5"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="C112" s="5"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C113" s="5"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C114" s="5"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C115" s="5"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C116" s="4"/>
+        <v>221</v>
+      </c>
+      <c r="C116" s="5"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C118" s="4"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C118" s="5"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="5" t="s">
+      <c r="C120" s="5"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B121" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C119" s="5"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="2" t="s">
+      <c r="C121" s="5"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C120" s="5"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C122" s="4"/>
+      <c r="C122" s="5"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>237</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C124" s="4"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>239</v>
+      <c r="A125" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B128" s="4" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C127" s="5"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C130" s="5"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C130" s="5"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C133" s="5"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>255</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C135" s="5"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>257</v>
-      </c>
+      <c r="A136" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C136" s="5"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>401</v>
+        <v>256</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="8" t="s">
+    <row r="145" spans="1:3">
+      <c r="A145" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="2" t="s">
+    <row r="146" spans="1:3">
+      <c r="A146" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B146" s="4" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C148" s="5"/>
+        <v>267</v>
+      </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>39</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C150" s="5"/>
+        <v>271</v>
+      </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C152" s="5"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C154" s="5"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B155" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C151" s="5"/>
-    </row>
-    <row r="152" spans="1:3" ht="17.25">
-      <c r="A152" s="5" t="s">
+      <c r="C155" s="5"/>
+    </row>
+    <row r="156" spans="1:3" ht="17.25">
+      <c r="A156" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B156" s="4" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C154" s="5"/>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C155" s="5"/>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C156" s="5"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C158" s="5"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159" s="5"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C160" s="5"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B161" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C157" s="5"/>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="5" t="s">
+      <c r="C161" s="5"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B162" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C158" s="5"/>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="5" t="s">
+      <c r="C162" s="5"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B163" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C159" s="4"/>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="7" t="s">
+      <c r="C163" s="4"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B164" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C160" s="5"/>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="6" t="s">
+      <c r="C164" s="5"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B165" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C161" s="4"/>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="2" t="s">
+      <c r="C165" s="4"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B166" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C166" s="4" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C163" s="5"/>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C165" s="5"/>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C166" s="4"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>414</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C167" s="5"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C169" s="5"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C170" s="4"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B172" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C168" s="5"/>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C169" s="4"/>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C170" s="5"/>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C171" s="5"/>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>319</v>
-      </c>
+      <c r="C172" s="5"/>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="5" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>322</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C173" s="4"/>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="A174" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C174" s="5"/>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="5" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C175" s="5"/>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="5" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>328</v>
+        <v>318</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C177" s="5"/>
+      <c r="A177" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C178" s="5"/>
+      <c r="A178" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="5" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C179" s="5"/>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C180" s="5"/>
+        <v>328</v>
+      </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C181" s="4"/>
+      <c r="A181" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C181" s="5"/>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C182" s="4"/>
+      <c r="A182" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C182" s="5"/>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C183" s="4"/>
+        <v>334</v>
+      </c>
+      <c r="C183" s="5"/>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="5" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>344</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C184" s="5"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>347</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C185" s="4"/>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>350</v>
-      </c>
+      <c r="A186" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C186" s="4"/>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="5" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>352</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C187" s="4"/>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>368</v>
+      <c r="A188" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>371</v>
+      <c r="A189" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>373</v>
+        <v>348</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>376</v>
+      <c r="A191" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>387</v>
+        <v>370</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B201" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C201" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="5" t="s">
+    <row r="202" spans="1:3">
+      <c r="A202" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B202" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C198" s="5"/>
+      <c r="C202" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C198">
-    <sortCondition ref="A2:A198"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C202">
+    <sortCondition ref="A2:A202"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C30966B-5E37-4757-B786-7C2D61F4E977}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA30AB4-2774-4CD5-B167-24303E85C288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="3150" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="442">
   <si>
     <t>原名</t>
   </si>
@@ -1373,12 +1373,60 @@
   <si>
     <t>星际传说：1 - 境界之外</t>
   </si>
+  <si>
+    <t>Star Saga: Two – The Clathran Menace</t>
+  </si>
+  <si>
+    <t>星际传说：2 – 克拉斯兰的威胁</t>
+  </si>
+  <si>
+    <t>Eternal Dagger</t>
+  </si>
+  <si>
+    <t>永恒之刃</t>
+  </si>
+  <si>
+    <t>Wasteland 2</t>
+  </si>
+  <si>
+    <t>废土 2</t>
+  </si>
+  <si>
+    <t>也可以翻译成“匕落”</t>
+  </si>
+  <si>
+    <t>Wizardry V: Heart of the Maelstrom</t>
+  </si>
+  <si>
+    <t>巫术 5：漩涡之心</t>
+  </si>
+  <si>
+    <t>Dragon’s Breath</t>
+  </si>
+  <si>
+    <t>龙之吐息</t>
+  </si>
+  <si>
+    <t>原创，《巫术 5》的前身</t>
+  </si>
+  <si>
+    <t>Prophecy I: The Fall of Trinadon</t>
+  </si>
+  <si>
+    <t>预言奇兵：天龙城的陷落</t>
+  </si>
+  <si>
+    <t>Drakkhen</t>
+  </si>
+  <si>
+    <t>德拉肯</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1410,6 +1458,12 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1431,7 +1485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1443,6 +1497,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1718,18 +1774,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:C209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B193" sqref="B193"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="65.42578125" customWidth="1"/>
     <col min="2" max="2" width="40.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="193.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="193.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1739,7 +1795,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1750,7 +1806,7 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1761,7 +1817,7 @@
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
@@ -1778,7 +1834,7 @@
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
@@ -1787,7 +1843,7 @@
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
@@ -1804,7 +1860,7 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
@@ -1813,7 +1869,7 @@
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
@@ -1822,7 +1878,7 @@
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
@@ -1831,7 +1887,7 @@
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
@@ -1840,7 +1896,7 @@
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
@@ -1849,7 +1905,7 @@
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
@@ -1858,7 +1914,7 @@
       <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
@@ -1875,7 +1931,7 @@
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1894,7 +1950,7 @@
       <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
@@ -1903,7 +1959,7 @@
       <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
@@ -1912,7 +1968,7 @@
       <c r="B20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
@@ -1921,7 +1977,7 @@
       <c r="B21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
@@ -1930,7 +1986,7 @@
       <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5" t="s">
@@ -1939,7 +1995,7 @@
       <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
@@ -1948,7 +2004,7 @@
       <c r="B24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1959,7 +2015,7 @@
       <c r="B25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
@@ -1976,7 +2032,7 @@
       <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
@@ -1985,7 +2041,7 @@
       <c r="B28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
@@ -1994,7 +2050,7 @@
       <c r="B29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
@@ -2003,7 +2059,7 @@
       <c r="B30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
@@ -2012,7 +2068,7 @@
       <c r="B31" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="9" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2023,7 +2079,7 @@
       <c r="B32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
@@ -2032,7 +2088,7 @@
       <c r="B33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2043,7 +2099,7 @@
       <c r="B34" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
@@ -2052,7 +2108,7 @@
       <c r="B35" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="10" t="s">
         <v>422</v>
       </c>
     </row>
@@ -2063,7 +2119,7 @@
       <c r="B36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
@@ -2072,7 +2128,7 @@
       <c r="B37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
@@ -2081,7 +2137,7 @@
       <c r="B38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
@@ -2098,7 +2154,7 @@
       <c r="B40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2109,7 +2165,7 @@
       <c r="B41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
@@ -2126,7 +2182,7 @@
       <c r="B43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2187,1376 +2243,1440 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>98</v>
+      <c r="A51" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>102</v>
+      <c r="A53" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="5"/>
+        <v>104</v>
+      </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="5"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2" t="s">
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="4"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" s="4"/>
+        <v>409</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>118</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="A63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="5"/>
+      <c r="A66" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" s="5"/>
+      <c r="A68" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" s="5"/>
+        <v>129</v>
+      </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C71" s="4"/>
+      <c r="A71" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C73" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="C73" s="9"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>399</v>
-      </c>
+      <c r="A74" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>144</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="A76" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C77" s="5"/>
+        <v>397</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>150</v>
+      <c r="A79" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" s="4"/>
+      <c r="A80" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C81" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>156</v>
+      <c r="A82" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>158</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>161</v>
+      <c r="A85" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C86" s="5"/>
+      <c r="A86" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>364</v>
+      <c r="A88" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>408</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="9"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C91" s="5"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C92" s="5"/>
-    </row>
-    <row r="93" spans="1:3" ht="17.25">
-      <c r="A93" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C93" s="4"/>
+      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C94" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>172</v>
+      </c>
+      <c r="C95" s="9"/>
+    </row>
+    <row r="96" spans="1:3" ht="17.25">
       <c r="A96" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C96" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="C96" s="9"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C97" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="C97" s="9"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" s="9"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C100" s="9"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C101" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="6" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C99" s="4"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C101" s="5"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C102" s="5"/>
+      <c r="C102" s="9"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>388</v>
+        <v>189</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C104" s="4"/>
+      <c r="A104" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C104" s="9"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>199</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C105" s="9"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>179</v>
+      <c r="A106" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>203</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C107" s="9"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C109" s="5"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C110" s="5"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C111" s="5"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C112" s="9"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C113" s="9"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C114" s="9"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C112" s="5"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C113" s="5"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C114" s="5"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C115" s="5"/>
+      <c r="C115" s="9"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C116" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="C116" s="9"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>417</v>
-      </c>
+      <c r="A117" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C117" s="9"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C118" s="4"/>
+        <v>219</v>
+      </c>
+      <c r="C118" s="9"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>406</v>
-      </c>
+      <c r="A119" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C119" s="9"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C120" s="5"/>
+      <c r="A120" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C121" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="C121" s="9"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C122" s="5"/>
+        <v>438</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>231</v>
+        <v>404</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C124" s="4"/>
+        <v>225</v>
+      </c>
+      <c r="C124" s="9"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>235</v>
-      </c>
+      <c r="A125" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C125" s="9"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>237</v>
-      </c>
+      <c r="A126" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C126" s="9"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>239</v>
+      <c r="A127" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>241</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C128" s="9"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C133" s="10" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="2" t="s">
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C130" s="5"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="2" t="s">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="2" t="s">
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C133" s="5"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C135" s="5"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C136" s="5"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>253</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C137" s="9"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>257</v>
-      </c>
+      <c r="A139" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C139" s="9"/>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="A140" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C140" s="9"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>401</v>
+        <v>256</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="8" t="s">
-        <v>357</v>
+      <c r="A145" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>358</v>
+        <v>427</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="2" t="s">
-        <v>262</v>
+      <c r="A146" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>267</v>
+      <c r="A148" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>269</v>
+      <c r="A149" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>271</v>
+      <c r="A150" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="5" t="s">
-        <v>272</v>
+      <c r="A151" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="5" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C152" s="5"/>
+        <v>265</v>
+      </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="5" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>39</v>
+        <v>267</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="5" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C154" s="5"/>
+        <v>269</v>
+      </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B160" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C155" s="5"/>
-    </row>
-    <row r="156" spans="1:3" ht="17.25">
-      <c r="A156" s="5" t="s">
+      <c r="C160" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="17.25">
+      <c r="A161" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B161" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="2" t="s">
+    <row r="162" spans="1:3">
+      <c r="A162" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C162" s="10" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="2" t="s">
+    <row r="163" spans="1:3">
+      <c r="A163" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B163" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C158" s="5"/>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="2" t="s">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B164" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C159" s="5"/>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="2" t="s">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B165" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C160" s="5"/>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C161" s="5"/>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C162" s="5"/>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C163" s="4"/>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C164" s="5"/>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C165" s="4"/>
+      <c r="C165" s="9"/>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>300</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C166" s="9"/>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C167" s="5"/>
+      <c r="A167" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C167" s="9"/>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>304</v>
-      </c>
+      <c r="A168" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C168" s="9"/>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="2" t="s">
-        <v>305</v>
+      <c r="A169" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C169" s="5"/>
+        <v>295</v>
+      </c>
+      <c r="C169" s="9"/>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="5" t="s">
-        <v>307</v>
+      <c r="A170" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C170" s="4"/>
+        <v>297</v>
+      </c>
+      <c r="C170" s="9"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>414</v>
+        <v>298</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C172" s="5"/>
+        <v>302</v>
+      </c>
+      <c r="C172" s="9"/>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C173" s="4"/>
+      <c r="A173" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C174" s="5"/>
+        <v>306</v>
+      </c>
+      <c r="C174" s="9"/>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="5" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C175" s="5"/>
+        <v>308</v>
+      </c>
+      <c r="C175" s="9"/>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>319</v>
+      <c r="A176" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>322</v>
-      </c>
+      <c r="A177" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C177" s="9"/>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="5" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>324</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C178" s="9"/>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C179" s="5"/>
+      <c r="A179" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C179" s="9"/>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="5" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>328</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C180" s="9"/>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C181" s="5"/>
+      <c r="A181" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C182" s="5"/>
+      <c r="A182" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C183" s="5"/>
+        <v>324</v>
+      </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C184" s="5"/>
+      <c r="A184" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C185" s="4"/>
+        <v>326</v>
+      </c>
+      <c r="C185" s="9"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C186" s="4"/>
+        <v>328</v>
+      </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C187" s="4"/>
+      <c r="A187" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C187" s="9"/>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>344</v>
-      </c>
+      <c r="A188" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C188" s="9"/>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="5" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>347</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C189" s="9"/>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>350</v>
-      </c>
+      <c r="A190" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C190" s="9"/>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="5" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>352</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C191" s="9"/>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="A192" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C192" s="9"/>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>371</v>
-      </c>
+      <c r="A193" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C193" s="9"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2" t="s">
-        <v>372</v>
+        <v>433</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>376</v>
+      <c r="A195" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>376</v>
+      <c r="A196" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>387</v>
+        <v>348</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>383</v>
+      <c r="A198" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>389</v>
+        <v>370</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B208" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C208" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="5" t="s">
+    <row r="209" spans="1:3">
+      <c r="A209" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B209" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C202" s="5"/>
+      <c r="C209" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C202">
-    <sortCondition ref="A2:A202"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C209">
+    <sortCondition ref="A2:A209"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA30AB4-2774-4CD5-B167-24303E85C288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68535F8-6FA4-47DD-932A-C1A421BF2C04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="3150" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="451">
   <si>
     <t>原名</t>
   </si>
@@ -1420,6 +1420,33 @@
   </si>
   <si>
     <t>德拉肯</t>
+  </si>
+  <si>
+    <t>Super Drakkhen</t>
+  </si>
+  <si>
+    <t>超级德拉肯</t>
+  </si>
+  <si>
+    <t>《德拉肯》SNES版本的移植厂商做的衍生作品</t>
+  </si>
+  <si>
+    <t>Siege</t>
+  </si>
+  <si>
+    <t>围城</t>
+  </si>
+  <si>
+    <t>The Magic Candle II</t>
+  </si>
+  <si>
+    <t>魔法之烛 2</t>
+  </si>
+  <si>
+    <t>The Magic Candle III</t>
+  </si>
+  <si>
+    <t>魔法之烛 3</t>
   </si>
 </sst>
 </file>
@@ -1774,11 +1801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C209"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3008,675 +3035,712 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C137" s="9"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>247</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C138" s="9"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C139" s="9"/>
+        <v>247</v>
+      </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C140" s="9"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>253</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C141" s="9"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B143" s="4" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>425</v>
+        <v>256</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>427</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B148" s="4" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B153" s="4" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C157" s="9"/>
+        <v>271</v>
+      </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>39</v>
+        <v>273</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C159" s="9"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B162" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C162" s="9" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="17.25">
-      <c r="A161" s="5" t="s">
+    <row r="163" spans="1:3" ht="17.25">
+      <c r="A163" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B163" s="4" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C163" s="9"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C164" s="9"/>
+        <v>394</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C165" s="9"/>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B170" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="5" t="s">
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B171" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="5" t="s">
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B172" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="7" t="s">
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B173" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="6" t="s">
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B174" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="2" t="s">
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B175" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C175" s="9" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C175" s="9"/>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>414</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C176" s="9"/>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B181" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>319</v>
-      </c>
+      <c r="C181" s="9"/>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="5" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>322</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C182" s="9"/>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="A183" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C183" s="9"/>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>431</v>
-      </c>
+      <c r="A184" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C184" s="9"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C185" s="9"/>
+        <v>318</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C187" s="9"/>
+      <c r="A187" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C188" s="9"/>
+        <v>430</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="5" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C189" s="9"/>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C190" s="9"/>
+        <v>328</v>
+      </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>338</v>
+      <c r="A191" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="C191" s="9"/>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>340</v>
+      <c r="A192" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="C192" s="9"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C193" s="9"/>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>434</v>
-      </c>
+      <c r="A194" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C194" s="9"/>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>344</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C195" s="9"/>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C196" s="9"/>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C197" s="9"/>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B200" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C196" s="9" t="s">
+      <c r="C200" s="9" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>373</v>
+        <v>348</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C202" s="10" t="s">
-        <v>376</v>
+      <c r="A202" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>387</v>
+        <v>370</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B212" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C208" s="9" t="s">
+      <c r="C212" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="5" t="s">
+    <row r="213" spans="1:3">
+      <c r="A213" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B213" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C209" s="9"/>
+      <c r="C213" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C209">
-    <sortCondition ref="A2:A209"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C213">
+    <sortCondition ref="A2:A213"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68535F8-6FA4-47DD-932A-C1A421BF2C04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1071C809-E1DF-464A-B52C-E071D9F39BDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="3150" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="463">
   <si>
     <t>原名</t>
   </si>
@@ -984,12 +984,6 @@
     <t>末日隧道</t>
   </si>
   <si>
-    <t>Ultima</t>
-  </si>
-  <si>
-    <t>创世纪</t>
-  </si>
-  <si>
     <t>Ultima 1: The First Age of Darkness</t>
   </si>
   <si>
@@ -1023,12 +1017,6 @@
     <t>创世纪 4：圣者的传奇</t>
   </si>
   <si>
-    <t>Ultima V</t>
-  </si>
-  <si>
-    <t>创世纪 5</t>
-  </si>
-  <si>
     <t>Ultima VI: The False Prophet</t>
   </si>
   <si>
@@ -1200,9 +1188,6 @@
     <t>Xanadu</t>
   </si>
   <si>
-    <t>雷诺尼都纪事</t>
-  </si>
-  <si>
     <t>Ys Eternal</t>
   </si>
   <si>
@@ -1335,12 +1320,6 @@
     <t>混沌重临</t>
   </si>
   <si>
-    <t>Ultima Underworld</t>
-  </si>
-  <si>
-    <t>创世纪地下世界</t>
-  </si>
-  <si>
     <t>Pool of Darkness</t>
   </si>
   <si>
@@ -1437,28 +1416,92 @@
     <t>围城</t>
   </si>
   <si>
-    <t>The Magic Candle II</t>
-  </si>
-  <si>
-    <t>魔法之烛 2</t>
-  </si>
-  <si>
     <t>The Magic Candle III</t>
   </si>
   <si>
     <t>魔法之烛 3</t>
+  </si>
+  <si>
+    <t>The Magic Candle II - The Four and Forty</t>
+  </si>
+  <si>
+    <t>魔法之烛 2 - 四与四十</t>
+  </si>
+  <si>
+    <t>The Keys to Maramon</t>
+  </si>
+  <si>
+    <t>玛拉蒙之钥</t>
+  </si>
+  <si>
+    <t>Bloodstone: An Epic Dwarven Tale</t>
+  </si>
+  <si>
+    <t>血石：矮人史诗</t>
+  </si>
+  <si>
+    <t>Ultima V: Warriors of Destiny</t>
+  </si>
+  <si>
+    <t>创世纪 5：命运斗士</t>
+  </si>
+  <si>
+    <t>Dungeon Siege</t>
+  </si>
+  <si>
+    <t>地牢围攻</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto</t>
+  </si>
+  <si>
+    <t>侠盗猎车手</t>
+  </si>
+  <si>
+    <t>Ultima Underworld: The Stygian Abyss</t>
+  </si>
+  <si>
+    <t>创世纪 地下世界：冥河深渊</t>
+  </si>
+  <si>
+    <t>即 Ultima Underworld I</t>
+  </si>
+  <si>
+    <t>Zeliard</t>
+  </si>
+  <si>
+    <t>神剑封魔</t>
+  </si>
+  <si>
+    <t>迷城国度</t>
+  </si>
+  <si>
+    <t>又称“风之传说：迷城国度”，旧译名“雷诺尼都纪事”不再使用</t>
+  </si>
+  <si>
+    <t>Hillsfar</t>
+  </si>
+  <si>
+    <t>希斯法尔</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1512,20 +1555,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1801,11 +1845,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B168" sqref="B168"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2016,1731 +2060,1776 @@
       <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="6" t="s">
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5" t="s">
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>66</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>422</v>
-      </c>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>366</v>
+        <v>95</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>435</v>
+        <v>361</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>437</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>100</v>
+      <c r="A54" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="9"/>
+      <c r="A58" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="9"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="9"/>
+        <v>404</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>125</v>
+      <c r="A68" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" s="9"/>
+        <v>123</v>
+      </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>131</v>
+      <c r="A71" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" s="9"/>
+        <v>129</v>
+      </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>135</v>
+      <c r="A73" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C73" s="9"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>399</v>
-      </c>
+      <c r="A77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>144</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>361</v>
+        <v>452</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>362</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80" s="9"/>
+        <v>392</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C81" s="9"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C83" s="9"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C84" s="9"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>49</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>161</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" s="9"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>364</v>
+      <c r="A91" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>408</v>
+      <c r="A92" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>168</v>
+      <c r="A93" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C93" s="9"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C94" s="9"/>
+        <v>165</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C95" s="9"/>
-    </row>
-    <row r="96" spans="1:3" ht="17.25">
-      <c r="A96" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C96" s="9"/>
+      <c r="A95" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C97" s="9"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>179</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C98" s="9"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C99" s="9"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" ht="17.25">
       <c r="A100" s="5" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C100" s="9"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>186</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C101" s="9"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="6" t="s">
-        <v>187</v>
+      <c r="A102" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C102" s="9"/>
+        <v>178</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>191</v>
-      </c>
+      <c r="A103" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" s="9"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>193</v>
+      <c r="A104" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="C104" s="9"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C105" s="9"/>
+        <v>185</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>388</v>
-      </c>
+      <c r="A106" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C106" s="9"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C107" s="9"/>
+      <c r="A107" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>199</v>
-      </c>
+      <c r="A108" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C108" s="9"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>179</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C109" s="9"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>203</v>
+      <c r="A110" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C111" s="9"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B115" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="2" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C112" s="9"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="2" t="s">
+      <c r="C116" s="9"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C113" s="9"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="2" t="s">
+      <c r="C117" s="9"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C114" s="9"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="2" t="s">
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C115" s="9"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="5" t="s">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C116" s="9"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C117" s="9"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>417</v>
-      </c>
+      <c r="C120" s="9"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C121" s="9"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>179</v>
-      </c>
+      <c r="A122" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C122" s="9"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>406</v>
-      </c>
+      <c r="A123" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C123" s="9"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C124" s="9"/>
+      <c r="A124" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C125" s="9"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C126" s="9"/>
+        <v>431</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>231</v>
+        <v>399</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C128" s="9"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>235</v>
-      </c>
+      <c r="A129" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C129" s="9"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>237</v>
-      </c>
+      <c r="A130" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C130" s="9"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>239</v>
+      <c r="A131" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>241</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C132" s="9"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>423</v>
+        <v>234</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C134" s="9"/>
+      <c r="A134" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>446</v>
+      <c r="A135" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>391</v>
+      <c r="A136" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>393</v>
+        <v>412</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>245</v>
+      <c r="A138" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="C138" s="9"/>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>247</v>
+      <c r="A139" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C140" s="9"/>
+      <c r="A140" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C141" s="9"/>
+      <c r="A141" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>253</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C142" s="9"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>257</v>
-      </c>
+      <c r="A144" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C144" s="9"/>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="A145" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C145" s="9"/>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>427</v>
+      <c r="A146" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>261</v>
+      <c r="A148" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>444</v>
+      <c r="A151" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>358</v>
+      <c r="A152" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B157" s="4" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C159" s="9"/>
+        <v>267</v>
+      </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>39</v>
+        <v>269</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C161" s="9"/>
+        <v>271</v>
+      </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B166" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C162" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="17.25">
-      <c r="A163" s="5" t="s">
+      <c r="C166" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="17.25">
+      <c r="A167" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B167" s="4" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C167" s="9"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C168" s="9"/>
+        <v>389</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C169" s="9"/>
+        <v>444</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C170" s="9"/>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>291</v>
+      <c r="A171" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C171" s="9"/>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>293</v>
+      <c r="A172" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="C172" s="9"/>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="7" t="s">
-        <v>294</v>
+      <c r="A173" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>295</v>
+        <v>441</v>
       </c>
       <c r="C173" s="9"/>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>297</v>
+      <c r="A174" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="C174" s="9"/>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C179" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C179" s="9"/>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>414</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C180" s="9"/>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C181" s="9"/>
+        <v>302</v>
+      </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>312</v>
+      <c r="A182" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="C182" s="9"/>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>314</v>
+      <c r="A183" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="C183" s="9"/>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C184" s="9"/>
+      <c r="A184" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>319</v>
-      </c>
+      <c r="A185" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C185" s="9"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="5" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>322</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C186" s="9"/>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="A187" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C187" s="9"/>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>431</v>
-      </c>
+      <c r="A188" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C188" s="9"/>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="5" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C189" s="9"/>
+        <v>314</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="5" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C191" s="9"/>
+      <c r="A191" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C192" s="9"/>
+        <v>423</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="5" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C193" s="9"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C194" s="9"/>
+        <v>324</v>
+      </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>338</v>
+      <c r="A195" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="C195" s="9"/>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>340</v>
+      <c r="A196" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="C196" s="9"/>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C197" s="9"/>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>434</v>
-      </c>
+      <c r="A198" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C198" s="9"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="5" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>344</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C199" s="9"/>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="5" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>347</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C200" s="9"/>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>350</v>
-      </c>
+      <c r="A201" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C201" s="9"/>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>352</v>
+      <c r="A202" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>368</v>
+      <c r="A203" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C204" s="10" t="s">
-        <v>371</v>
+      <c r="A204" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>373</v>
+        <v>344</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>376</v>
+      <c r="A206" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>375</v>
+        <v>459</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>376</v>
+        <v>460</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>387</v>
+        <v>365</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C212" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C216" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="C213" s="9"/>
+    <row r="217" spans="1:3">
+      <c r="A217" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C218" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C213">
-    <sortCondition ref="A2:A213"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C218">
+    <sortCondition ref="A2:A218"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1071C809-E1DF-464A-B52C-E071D9F39BDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E957E977-F474-4B09-A2CB-787C18ED2258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="3150" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="478">
   <si>
     <t>原名</t>
   </si>
@@ -751,12 +751,6 @@
     <t>光芒之池</t>
   </si>
   <si>
-    <t>Quest for Glory</t>
-  </si>
-  <si>
-    <t>荣耀任务</t>
-  </si>
-  <si>
     <t>Quest for Glory: Shadows of Darkness</t>
   </si>
   <si>
@@ -1483,6 +1477,57 @@
   </si>
   <si>
     <t>希斯法尔</t>
+  </si>
+  <si>
+    <t>荣耀任务：英雄之证</t>
+  </si>
+  <si>
+    <t>《荣耀任务》第一部</t>
+  </si>
+  <si>
+    <t>《荣耀任务》第四部</t>
+  </si>
+  <si>
+    <t>Quest for Glory: So You Want to Be a Hero</t>
+  </si>
+  <si>
+    <t>Hero's Quest</t>
+  </si>
+  <si>
+    <t>英雄之旅</t>
+  </si>
+  <si>
+    <t>《荣耀任务》的曾用名</t>
+  </si>
+  <si>
+    <t>Quest for Glory II: Trial by Fire</t>
+  </si>
+  <si>
+    <t>荣耀任务 2：火之审判</t>
+  </si>
+  <si>
+    <t>Quest for Glory III: Wages of War</t>
+  </si>
+  <si>
+    <t>荣耀任务 3：战争的回报</t>
+  </si>
+  <si>
+    <t>A Question of Vengeance</t>
+  </si>
+  <si>
+    <t>复仇问题</t>
+  </si>
+  <si>
+    <t>《风堡传奇》的第一部分</t>
+  </si>
+  <si>
+    <t>Lifthransir’s Bane</t>
+  </si>
+  <si>
+    <t>拉夫兰西尔的祸根</t>
+  </si>
+  <si>
+    <t>《风堡传奇》的第二部分</t>
   </si>
 </sst>
 </file>
@@ -1845,11 +1890,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A217" sqref="A217"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1882,1954 +1927,2007 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="A3" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="9"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="9"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>447</v>
-      </c>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="6" t="s">
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>66</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="5" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>362</v>
+        <v>95</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="5" t="s">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>100</v>
+      <c r="A55" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>106</v>
+      <c r="A59" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" s="9"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="9"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>405</v>
+        <v>111</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="9"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2" t="s">
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="9"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="C66" s="9"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>123</v>
+      <c r="A69" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="9"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C73" s="9"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="9"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="9"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>453</v>
-      </c>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="5" t="s">
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>357</v>
+        <v>465</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>358</v>
+        <v>466</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="9"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C85" s="9"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>150</v>
-      </c>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C88" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="A89" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" s="9"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>360</v>
+      <c r="A95" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>403</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C96" s="9"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="C97" s="9"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C98" s="9"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C99" s="9"/>
-    </row>
-    <row r="100" spans="1:3" ht="17.25">
-      <c r="A100" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="C100" s="9"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C101" s="9"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>172</v>
+      </c>
+      <c r="C102" s="9"/>
+    </row>
+    <row r="103" spans="1:3" ht="17.25">
       <c r="A103" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C103" s="9"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C104" s="9"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" s="9"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C107" s="9"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C108" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="6" t="s">
+    <row r="109" spans="1:3">
+      <c r="A109" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B109" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="C106" s="9"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C108" s="9"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="C109" s="9"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>383</v>
+        <v>189</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>197</v>
+      <c r="A111" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="C111" s="9"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>199</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>179</v>
+      <c r="A113" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>203</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C114" s="9"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C116" s="9"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C117" s="9"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C118" s="9"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="C122" s="9"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C123" s="9"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>410</v>
-      </c>
+      <c r="A124" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C124" s="9"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C125" s="9"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>179</v>
-      </c>
+      <c r="A126" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C126" s="9"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C128" s="9"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C129" s="9"/>
+      <c r="A129" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C130" s="9"/>
+        <v>397</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>231</v>
+        <v>468</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C132" s="9"/>
+      <c r="A132" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>235</v>
+      <c r="A133" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>236</v>
+        <v>464</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>237</v>
+        <v>461</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>239</v>
-      </c>
+      <c r="A135" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C135" s="9"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>241</v>
+      <c r="A136" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>416</v>
-      </c>
+      <c r="A137" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C137" s="9"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C138" s="9"/>
+        <v>233</v>
+      </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>439</v>
+      <c r="A139" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="5" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>255</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C147" s="9"/>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>257</v>
+      <c r="A148" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>418</v>
-      </c>
+      <c r="A149" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C149" s="9"/>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>420</v>
-      </c>
+      <c r="A150" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C150" s="9"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>396</v>
+        <v>254</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C160" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>269</v>
-      </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>271</v>
+      <c r="A161" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="5" t="s">
-        <v>272</v>
+      <c r="A162" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="5" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C163" s="9"/>
+        <v>263</v>
+      </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="5" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>39</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="5" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C165" s="9"/>
+        <v>267</v>
+      </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="17.25">
+      <c r="A172" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B172" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C166" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="17.25">
-      <c r="A167" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="C172" s="9"/>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C173" s="9"/>
+        <v>387</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C174" s="9"/>
+        <v>442</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C175" s="9"/>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>291</v>
+      <c r="A176" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C176" s="9"/>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>293</v>
+      <c r="A177" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="C177" s="9"/>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="7" t="s">
-        <v>294</v>
+      <c r="A178" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>295</v>
+        <v>439</v>
       </c>
       <c r="C178" s="9"/>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>298</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C179" s="9"/>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C180" s="9"/>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>302</v>
-      </c>
+      <c r="A181" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C181" s="9"/>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>304</v>
+      <c r="A182" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="C182" s="9"/>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>306</v>
+      <c r="A183" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="C183" s="9"/>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>456</v>
+        <v>294</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2" t="s">
-        <v>448</v>
+        <v>297</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>449</v>
+        <v>298</v>
       </c>
       <c r="C185" s="9"/>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C186" s="9"/>
+      <c r="A186" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C187" s="9"/>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C188" s="9"/>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>315</v>
+      <c r="A189" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>318</v>
-      </c>
+      <c r="A190" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C190" s="9"/>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="5" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>320</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C191" s="9"/>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>424</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C192" s="9"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="5" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C193" s="9"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="5" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>324</v>
+        <v>312</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C195" s="9"/>
+      <c r="A195" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C196" s="9"/>
+      <c r="A196" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C197" s="9"/>
+      <c r="A197" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="5" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C198" s="9"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="5" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C199" s="9"/>
+        <v>322</v>
+      </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>336</v>
+      <c r="A200" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="C200" s="9"/>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>338</v>
+      <c r="A201" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="C201" s="9"/>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>427</v>
-      </c>
+      <c r="A202" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C202" s="9"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="5" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>340</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C203" s="9"/>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="5" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C204" s="9" t="s">
-        <v>343</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C204" s="9"/>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>346</v>
-      </c>
+      <c r="A205" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C205" s="9"/>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="5" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>348</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C206" s="9"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2" t="s">
-        <v>363</v>
+        <v>424</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>366</v>
+      <c r="A208" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>368</v>
+      <c r="A209" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>371</v>
+        <v>342</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>371</v>
+      <c r="A211" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>382</v>
+        <v>457</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>378</v>
+        <v>363</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B223" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C216" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B217" s="10" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C218" s="9"/>
+      <c r="C223" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C218">
-    <sortCondition ref="A2:A218"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C223">
+    <sortCondition ref="A2:A223"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E957E977-F474-4B09-A2CB-787C18ED2258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCB57C8-5773-45A2-BF59-8FD3BCDEBBB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="3150" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="525">
   <si>
     <t>原名</t>
   </si>
@@ -1308,9 +1308,6 @@
     <t>矮人要塞</t>
   </si>
   <si>
-    <t>Chaos Strikes Back</t>
-  </si>
-  <si>
     <t>混沌重临</t>
   </si>
   <si>
@@ -1528,6 +1525,150 @@
   </si>
   <si>
     <t>《风堡传奇》的第二部分</t>
+  </si>
+  <si>
+    <t>Super Mario Bros</t>
+  </si>
+  <si>
+    <t>超级马里奥兄弟</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>塞尔达传说</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>银河战士</t>
+  </si>
+  <si>
+    <t>Castlevania</t>
+  </si>
+  <si>
+    <t>恶魔城</t>
+  </si>
+  <si>
+    <t>Mega Man</t>
+  </si>
+  <si>
+    <t>洛克人</t>
+  </si>
+  <si>
+    <t>King's Quest IV: The Perils of Rosella</t>
+  </si>
+  <si>
+    <t>国王密使 4：萝塞拉的冒险</t>
+  </si>
+  <si>
+    <t>The Eternal Dagger</t>
+  </si>
+  <si>
+    <t>永恒之匕</t>
+  </si>
+  <si>
+    <t>《巫师神冠》的续作，维基百科上译作《永恒之剑》</t>
+  </si>
+  <si>
+    <t>Bard’s Tale II: The Destiny Knight</t>
+  </si>
+  <si>
+    <t>冰城传奇 2：天命骑士</t>
+  </si>
+  <si>
+    <t>The Bard’s Tale III: Thief of Fate</t>
+  </si>
+  <si>
+    <t>冰城传奇 3：天命神偷</t>
+  </si>
+  <si>
+    <t>《另类实境》有七个子标题（只有前两个发售了）：城市（City）、地牢（Dungeon）、竞技场（Arena）、宫殿（Palace）、荒野（Wilderness）、启示（Revelation）、天命（Destiny）</t>
+  </si>
+  <si>
+    <t>粉丝制作</t>
+  </si>
+  <si>
+    <t>一款桌游，《飞车武士》的原型</t>
+  </si>
+  <si>
+    <t>一款街机游戏</t>
+  </si>
+  <si>
+    <t>Might and Magic: Book I – Secret of the Inner Sanctum</t>
+  </si>
+  <si>
+    <t>魔法门 1：心灵圣地之谜</t>
+  </si>
+  <si>
+    <t>Alien Fires: 2199 A.D.</t>
+  </si>
+  <si>
+    <t>异星之火：公元 2199</t>
+  </si>
+  <si>
+    <t>Wizardry IV: The Return of Werdna</t>
+  </si>
+  <si>
+    <t>巫术 4：瓦德纳的复仇</t>
+  </si>
+  <si>
+    <t>Dungeon Master: Chaos Strikes Back</t>
+  </si>
+  <si>
+    <t>原创，《地牢大师》的续作</t>
+  </si>
+  <si>
+    <t>The Dark Heart of Uukrul</t>
+  </si>
+  <si>
+    <t>巫域之心</t>
+  </si>
+  <si>
+    <t>NetHack: The Next Generation</t>
+  </si>
+  <si>
+    <t>迷宫骇客：下一代</t>
+  </si>
+  <si>
+    <t>《迷宫骇客》的衍生作品之一</t>
+  </si>
+  <si>
+    <t>UnNetHack</t>
+  </si>
+  <si>
+    <t>非迷宫骇客</t>
+  </si>
+  <si>
+    <t>Slash’Em Extended</t>
+  </si>
+  <si>
+    <t>砍就完事了增强版</t>
+  </si>
+  <si>
+    <t>Hack</t>
+  </si>
+  <si>
+    <t>骇客</t>
+  </si>
+  <si>
+    <t>《Rogue》的变体之一，《迷宫骇客》的前身</t>
+  </si>
+  <si>
+    <t>Neuromancer</t>
+  </si>
+  <si>
+    <t>神经漫游者</t>
+  </si>
+  <si>
+    <t>Mercenaries，Spies and Private Eyes</t>
+  </si>
+  <si>
+    <t>佣兵、间谍与私家侦探</t>
+  </si>
+  <si>
+    <t>一款桌游</t>
   </si>
 </sst>
 </file>
@@ -1890,11 +2031,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B217" sqref="B217"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1928,13 +2069,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>473</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1973,1961 +2114,2141 @@
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
+      <c r="A8" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="9"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="9"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="9"/>
+      <c r="A21" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>445</v>
-      </c>
+      <c r="A24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>49</v>
+        <v>443</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5" t="s">
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
+      <c r="C30" s="10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>404</v>
+        <v>483</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>179</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="5" t="s">
-        <v>62</v>
+      <c r="A34" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>66</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>413</v>
+      <c r="A37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="9"/>
+        <v>410</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="A41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>79</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="9"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="6" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="6" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>428</v>
+        <v>95</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>98</v>
+      <c r="A54" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>102</v>
+      <c r="A57" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>449</v>
+      <c r="A59" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="5" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="9"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="9"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>403</v>
-      </c>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" s="9"/>
+        <v>112</v>
+      </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>118</v>
+      <c r="A67" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>121</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>420</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="9"/>
+      <c r="A72" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" s="9"/>
+      <c r="A74" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="9"/>
+        <v>129</v>
+      </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>137</v>
+      <c r="A77" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>451</v>
-      </c>
+      <c r="A80" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>392</v>
-      </c>
+      <c r="A81" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>144</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>460</v>
+        <v>518</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C86" s="9"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C87" s="9"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C89" s="9"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>156</v>
+        <v>487</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>477</v>
-      </c>
+      <c r="A92" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>49</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>161</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C96" s="9"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>166</v>
+      <c r="A97" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>358</v>
+      <c r="A98" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>401</v>
+      <c r="A99" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C100" s="9"/>
+        <v>161</v>
+      </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>170</v>
+      <c r="A101" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C101" s="9"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C102" s="9"/>
-    </row>
-    <row r="103" spans="1:3" ht="17.25">
-      <c r="A103" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C103" s="9"/>
+        <v>165</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C104" s="9"/>
+      <c r="A104" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>179</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C105" s="9"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C106" s="9"/>
+      <c r="A106" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C107" s="9"/>
+      <c r="A107" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>186</v>
+      <c r="A108" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="6" t="s">
-        <v>187</v>
+      <c r="A109" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C109" s="9"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>193</v>
+      <c r="A110" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C110" s="9"/>
+    </row>
+    <row r="111" spans="1:3" ht="17.25">
+      <c r="A111" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="C111" s="9"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C112" s="9"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>377</v>
+        <v>500</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>381</v>
+        <v>501</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C114" s="9"/>
+        <v>178</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>199</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C115" s="9"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>179</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C116" s="9"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="5" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>203</v>
+        <v>185</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="5" t="s">
-        <v>204</v>
+      <c r="A118" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>205</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C118" s="9"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C119" s="9"/>
+        <v>190</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C120" s="9"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C121" s="9"/>
+        <v>510</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C122" s="9"/>
+        <v>520</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="5" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C123" s="9"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C124" s="9"/>
+      <c r="A124" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C125" s="9"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C126" s="9"/>
+        <v>199</v>
+      </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>408</v>
+      <c r="A127" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C128" s="9"/>
+        <v>203</v>
+      </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>179</v>
+      <c r="A129" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>399</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C130" s="9"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>469</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C131" s="9"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>471</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C132" s="9"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>463</v>
-      </c>
+      <c r="A133" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C133" s="9"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>464</v>
+        <v>214</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>462</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C134" s="9"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>227</v>
+      <c r="A135" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="C135" s="9"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>229</v>
-      </c>
+      <c r="A136" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C136" s="9"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C137" s="9"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>233</v>
+        <v>405</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>235</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C139" s="9"/>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>237</v>
+      <c r="A140" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>239</v>
+      <c r="A141" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C143" s="9"/>
+        <v>469</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>437</v>
+      <c r="A144" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>384</v>
+      <c r="A145" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>386</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C146" s="9"/>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C147" s="9"/>
+      <c r="A147" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="5" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>245</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C148" s="9"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C149" s="9"/>
+      <c r="A149" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="5" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C150" s="9"/>
+        <v>235</v>
+      </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="5" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>251</v>
+        <v>236</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="5" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>255</v>
+        <v>408</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>416</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C154" s="9"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>257</v>
+      <c r="A156" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>259</v>
+      <c r="A157" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>393</v>
+        <v>515</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>394</v>
+        <v>516</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>396</v>
-      </c>
+      <c r="A159" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C159" s="9"/>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>435</v>
+      <c r="A160" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>352</v>
-      </c>
+      <c r="A161" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C161" s="9"/>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="2" t="s">
-        <v>260</v>
+      <c r="A162" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>261</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C162" s="9"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>263</v>
+        <v>251</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="5" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>267</v>
+      <c r="A165" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>269</v>
+      <c r="A166" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>271</v>
+      <c r="A167" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="5" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C168" s="9"/>
+        <v>257</v>
+      </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="5" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C170" s="9"/>
+      <c r="A170" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="17.25">
-      <c r="A172" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>280</v>
+      <c r="A171" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2" t="s">
-        <v>387</v>
+        <v>477</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>389</v>
+        <v>478</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="2" t="s">
-        <v>442</v>
+      <c r="A174" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>443</v>
+        <v>352</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C175" s="9"/>
+        <v>260</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C176" s="9"/>
+      <c r="A176" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C177" s="9"/>
+      <c r="A177" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C178" s="9"/>
+      <c r="A178" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C179" s="9"/>
+      <c r="A179" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C180" s="9"/>
+      <c r="A180" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="5" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C181" s="9"/>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="5" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C182" s="9"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C183" s="9"/>
+      <c r="A183" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>296</v>
+        <v>508</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>298</v>
+      <c r="A185" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="C185" s="9"/>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C187" s="9"/>
+      <c r="A186" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="17.25">
+      <c r="A187" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C188" s="9"/>
+      <c r="A188" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>454</v>
+        <v>389</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C190" s="9"/>
+        <v>441</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>306</v>
+      <c r="A191" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="C191" s="9"/>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C192" s="9"/>
+        <v>479</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>310</v>
+      <c r="A193" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C193" s="9"/>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>313</v>
-      </c>
+      <c r="A194" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C194" s="9"/>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>316</v>
-      </c>
+      <c r="A195" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C195" s="9"/>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>318</v>
-      </c>
+      <c r="A196" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C196" s="9"/>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>422</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C197" s="9"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="5" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="C198" s="9"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="5" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>322</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C199" s="9"/>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="2" t="s">
-        <v>323</v>
+      <c r="A200" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="C200" s="9"/>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C201" s="9"/>
+        <v>295</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>328</v>
+      <c r="A202" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="C202" s="9"/>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C203" s="9"/>
+      <c r="A203" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C204" s="9"/>
+      <c r="A204" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="5" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C205" s="9"/>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C206" s="9"/>
+      <c r="A206" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>425</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C207" s="9"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="5" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>338</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C208" s="9"/>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>341</v>
-      </c>
+      <c r="A209" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C209" s="9"/>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>344</v>
+        <v>513</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="5" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>346</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C211" s="9"/>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>458</v>
+      <c r="A212" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>364</v>
+      <c r="A213" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>366</v>
+      <c r="A214" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>369</v>
-      </c>
+      <c r="A216" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C216" s="9"/>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>380</v>
+      <c r="A217" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>376</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C218" s="9"/>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>373</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C219" s="9"/>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>382</v>
-      </c>
+      <c r="A220" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C220" s="9"/>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C221" s="9" t="s">
-        <v>191</v>
-      </c>
+      <c r="A221" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C221" s="9"/>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B222" s="10" t="s">
-        <v>456</v>
-      </c>
+      <c r="A222" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C222" s="9"/>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C223" s="9"/>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C224" s="9"/>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B242" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C223" s="9"/>
+      <c r="C242" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C223">
-    <sortCondition ref="A2:A223"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C242">
+    <sortCondition ref="A2:A242"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCB57C8-5773-45A2-BF59-8FD3BCDEBBB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8C5571-E5FF-42C3-B4EA-B7FDFB91092C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="3150" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="528">
   <si>
     <t>原名</t>
   </si>
@@ -298,7 +298,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Drač</t>
@@ -317,7 +317,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> Doup</t>
     </r>
@@ -1670,17 +1670,35 @@
   <si>
     <t>一款桌游</t>
   </si>
+  <si>
+    <t>Chaos strikes back</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌反击</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>也有译名为《武士传说》</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1706,7 +1724,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1719,6 +1737,20 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1741,21 +1773,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2031,11 +2064,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C242"/>
+  <dimension ref="A1:C243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2872,7 +2905,9 @@
       <c r="B92" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="9"/>
+      <c r="C92" s="9" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="5" t="s">
@@ -4245,11 +4280,20 @@
         <v>350</v>
       </c>
       <c r="C242" s="9"/>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>526</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C242">
     <sortCondition ref="A2:A242"/>
   </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8C5571-E5FF-42C3-B4EA-B7FDFB91092C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A41DC47-18B1-437C-9878-F129E7978AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="3150" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="6450" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="599">
   <si>
     <t>原名</t>
   </si>
@@ -1672,26 +1672,253 @@
   </si>
   <si>
     <t>Chaos strikes back</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>混沌反击</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>也有译名为《武士传说》</t>
+  </si>
+  <si>
+    <t>The Immortal</t>
+  </si>
+  <si>
+    <t>不死传说</t>
+  </si>
+  <si>
+    <t>Dune II</t>
+  </si>
+  <si>
+    <t>沙丘 2</t>
+  </si>
+  <si>
+    <t>Wolfenstein 3D</t>
+  </si>
+  <si>
+    <t>德军总部 3D</t>
+  </si>
+  <si>
+    <t>Civilization</t>
+  </si>
+  <si>
+    <t>文明</t>
+  </si>
+  <si>
+    <t>Alone in the Dark</t>
+  </si>
+  <si>
+    <t>鬼屋魔影</t>
+  </si>
+  <si>
+    <t>Street Fighter II</t>
+  </si>
+  <si>
+    <t>街头霸王 2</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>真人快打</t>
+  </si>
+  <si>
+    <t>The King of Fighters</t>
+  </si>
+  <si>
+    <t>拳皇</t>
+  </si>
+  <si>
+    <t>Super Mario World</t>
+  </si>
+  <si>
+    <t>超级马里奥世界</t>
+  </si>
+  <si>
+    <t>Donkey Kong Country</t>
+  </si>
+  <si>
+    <t>大金刚王国</t>
+  </si>
+  <si>
+    <t>Megaman X</t>
+  </si>
+  <si>
+    <t>洛克人 X</t>
+  </si>
+  <si>
+    <t>Castlevania: Rondo of Blood</t>
+  </si>
+  <si>
+    <t>恶魔城：血之轮回</t>
+  </si>
+  <si>
+    <t>Super Metroid</t>
+  </si>
+  <si>
+    <t>超级银河战士</t>
+  </si>
+  <si>
+    <t>Earthbound</t>
+  </si>
+  <si>
+    <t>地球冒险</t>
+  </si>
+  <si>
+    <t>日版叫做 MOTHER</t>
+  </si>
+  <si>
+    <t>Breath of Fire</t>
+  </si>
+  <si>
+    <t>龙战士</t>
+  </si>
+  <si>
+    <t>Need for Speed</t>
+  </si>
+  <si>
+    <t>极品飞车</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>魔兽争霸</t>
+  </si>
+  <si>
+    <t>SimCity 2000</t>
+  </si>
+  <si>
+    <t>模拟城市 2000</t>
+  </si>
+  <si>
+    <t>Mario Kart</t>
+  </si>
+  <si>
+    <t>马里奥赛车</t>
+  </si>
+  <si>
+    <t>X-COM</t>
+  </si>
+  <si>
+    <t>幽浮</t>
+  </si>
+  <si>
+    <t>也可以写作“XCOM”</t>
+  </si>
+  <si>
+    <t>Lemmings</t>
+  </si>
+  <si>
+    <t>疯狂小旅鼠</t>
+  </si>
+  <si>
+    <t>F-Zero</t>
+  </si>
+  <si>
+    <t>零式赛车</t>
+  </si>
+  <si>
+    <t>Wing Commander</t>
+  </si>
+  <si>
+    <t>银河飞将</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>星际火狐</t>
+  </si>
+  <si>
+    <t>Epic Pinball</t>
+  </si>
+  <si>
+    <t>史诗弹球</t>
+  </si>
+  <si>
+    <t>Duke Nukem</t>
+  </si>
+  <si>
+    <t>毁灭公爵</t>
+  </si>
+  <si>
+    <t>The 7th Guest</t>
+  </si>
+  <si>
+    <t>第七访客</t>
+  </si>
+  <si>
+    <t>Myst</t>
+  </si>
+  <si>
+    <t>神秘岛</t>
+  </si>
+  <si>
+    <t>Night Trap</t>
+  </si>
+  <si>
+    <t>午夜陷阱</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>雷神之锤</t>
+  </si>
+  <si>
+    <t>Half-Life</t>
+  </si>
+  <si>
+    <t>半条命</t>
+  </si>
+  <si>
+    <t>Team Fortess</t>
+  </si>
+  <si>
+    <t>军团要塞</t>
+  </si>
+  <si>
+    <t>Aliens TC</t>
+  </si>
+  <si>
+    <t>异形 TC</t>
+  </si>
+  <si>
+    <t>《毁灭战士》的一个mod，TC指的是total conversation</t>
+  </si>
+  <si>
+    <t>Sonic: The Hedgehog</t>
+  </si>
+  <si>
+    <t>刺猬索尼克</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1773,22 +2000,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2064,11 +2293,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C243"/>
+  <dimension ref="A1:C277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A272" sqref="A272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2155,2145 +2384,2426 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
+      <c r="A9" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="9"/>
+      <c r="A10" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>496</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="9"/>
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>493</v>
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="9"/>
+      <c r="A23" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>444</v>
-      </c>
+      <c r="A26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>49</v>
+        <v>443</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>498</v>
+      <c r="A30" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="6" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="9"/>
+      <c r="A42" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>79</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="9"/>
+      <c r="A45" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="A47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="6" t="s">
-        <v>85</v>
+      <c r="A48" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="6" t="s">
-        <v>87</v>
+      <c r="A49" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>92</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>96</v>
+      <c r="A53" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>360</v>
+      <c r="A54" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>425</v>
+        <v>546</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>427</v>
+        <v>547</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="5" t="s">
-        <v>97</v>
+      <c r="A56" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>431</v>
+      <c r="A57" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>104</v>
+      <c r="A60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>506</v>
+        <v>359</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>507</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>448</v>
+        <v>426</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C64" s="9"/>
+      <c r="A64" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="9"/>
+      <c r="A65" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>112</v>
+        <v>530</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>403</v>
+      <c r="A67" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="9"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C69" s="9"/>
+      <c r="A69" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>118</v>
+      <c r="A70" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>121</v>
+      <c r="A71" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>419</v>
+      <c r="A72" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C73" s="9"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="9"/>
+      <c r="A75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>129</v>
+      <c r="A76" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>131</v>
+      <c r="A77" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" s="9"/>
+      <c r="A78" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>135</v>
+      <c r="A79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="5" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80" s="9"/>
+        <v>118</v>
+      </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C81" s="9"/>
+        <v>120</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82" s="9"/>
+      <c r="A82" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>519</v>
+      <c r="A84" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>392</v>
+      <c r="A85" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>144</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>466</v>
+      <c r="A87" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>459</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>356</v>
-      </c>
+      <c r="A89" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="9"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C90" s="9"/>
+      <c r="A90" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>488</v>
-      </c>
+      <c r="A91" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>527</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="5" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>150</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C94" s="9"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C95" s="9"/>
+      <c r="A95" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>156</v>
+        <v>517</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>474</v>
+        <v>590</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>476</v>
+        <v>591</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>158</v>
+      <c r="A98" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="5" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>161</v>
+      <c r="A100" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C101" s="9"/>
+        <v>458</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>166</v>
+      <c r="A102" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>358</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="9"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>400</v>
+        <v>487</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>401</v>
+        <v>488</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="5" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C105" s="9"/>
+        <v>148</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>486</v>
+      <c r="A106" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>524</v>
-      </c>
+      <c r="A107" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" s="9"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>482</v>
-      </c>
+      <c r="A108" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108" s="9"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C109" s="9"/>
+      <c r="A109" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C110" s="9"/>
-    </row>
-    <row r="111" spans="1:3" ht="17.25">
-      <c r="A111" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C111" s="9"/>
+      <c r="A110" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C112" s="9"/>
+        <v>158</v>
+      </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>501</v>
+      <c r="A113" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>181</v>
+      <c r="A115" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C115" s="9"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C116" s="9"/>
+        <v>165</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>186</v>
+      <c r="A117" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C118" s="9"/>
+      <c r="A118" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>191</v>
+        <v>400</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>193</v>
+      <c r="A120" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C120" s="9"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>521</v>
+        <v>548</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C123" s="9"/>
+      <c r="A123" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>377</v>
+        <v>481</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>381</v>
+        <v>482</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="C125" s="9"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="5" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>172</v>
+      </c>
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="1:3" ht="17.25">
       <c r="A127" s="5" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>179</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C127" s="9"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>203</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C128" s="9"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>205</v>
+      <c r="A129" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C130" s="9"/>
+      <c r="A130" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>209</v>
+      <c r="A131" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="C131" s="9"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>211</v>
+      <c r="A132" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="C132" s="9"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C133" s="9"/>
+      <c r="A133" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C134" s="9"/>
+      <c r="A134" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="5" t="s">
-        <v>216</v>
+      <c r="A135" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="C135" s="9"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C136" s="9"/>
+      <c r="A136" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C137" s="9"/>
+      <c r="A137" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>407</v>
+      <c r="A138" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>223</v>
+      <c r="A139" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="C139" s="9"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>428</v>
+        <v>510</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>429</v>
+        <v>511</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>179</v>
+        <v>512</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>397</v>
+        <v>520</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>399</v>
+        <v>521</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>468</v>
-      </c>
+      <c r="A142" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C142" s="9"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>469</v>
+        <v>586</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>470</v>
+        <v>587</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>462</v>
+      <c r="A144" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="5" t="s">
-        <v>463</v>
+        <v>196</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>461</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C145" s="9"/>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C146" s="9"/>
+      <c r="A146" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>229</v>
+      <c r="A147" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="5" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C148" s="9"/>
+        <v>203</v>
+      </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>233</v>
+      <c r="A149" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>235</v>
-      </c>
+      <c r="A150" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C150" s="9"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>237</v>
-      </c>
+      <c r="A151" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C151" s="9"/>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>239</v>
-      </c>
+      <c r="A152" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C152" s="9"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>413</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C153" s="9"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>241</v>
+      <c r="A154" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="C154" s="9"/>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>436</v>
-      </c>
+      <c r="A155" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C155" s="9"/>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>384</v>
-      </c>
+      <c r="A156" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C156" s="9"/>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>386</v>
-      </c>
+      <c r="A157" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C157" s="9"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>515</v>
+        <v>405</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>516</v>
+        <v>406</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>512</v>
+        <v>407</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="5" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="C159" s="9"/>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>245</v>
+      <c r="A160" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C161" s="9"/>
+      <c r="A161" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C162" s="9"/>
+      <c r="A162" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>499</v>
+      <c r="A163" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>253</v>
+      <c r="A164" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>255</v>
+      <c r="A165" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>415</v>
+      <c r="A166" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>417</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C167" s="9"/>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>257</v>
+      <c r="A168" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="5" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>259</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C169" s="9"/>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>394</v>
+        <v>232</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>396</v>
+      <c r="A171" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>434</v>
+      <c r="A172" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>478</v>
+      <c r="A173" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="8" t="s">
-        <v>351</v>
+      <c r="A174" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>352</v>
+        <v>409</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>261</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C175" s="9"/>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>263</v>
+      <c r="A176" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>265</v>
+      <c r="A177" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>267</v>
+      <c r="A178" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>269</v>
+      <c r="A179" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>271</v>
+      <c r="A180" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C181" s="9"/>
+      <c r="A181" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="5" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C182" s="9"/>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>495</v>
+      <c r="A183" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>509</v>
-      </c>
+      <c r="A184" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C184" s="9"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="5" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="C185" s="9"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="5" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="17.25">
+        <v>251</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="5" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>491</v>
+      <c r="A188" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>389</v>
+        <v>254</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C191" s="9"/>
+        <v>416</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>480</v>
+      <c r="A192" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C193" s="9"/>
+      <c r="A193" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C194" s="9"/>
+        <v>393</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C195" s="9"/>
+        <v>395</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C196" s="9"/>
+        <v>538</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C197" s="9"/>
+        <v>432</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C198" s="9"/>
+      <c r="A198" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C199" s="9"/>
+      <c r="A199" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C200" s="9"/>
+      <c r="A200" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>296</v>
+      <c r="A201" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C202" s="9"/>
+        <v>260</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>300</v>
+      <c r="A203" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C204" s="9" t="s">
-        <v>497</v>
+      <c r="A204" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C205" s="9"/>
+      <c r="A205" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>453</v>
+      <c r="A206" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C207" s="9"/>
+      <c r="A207" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="5" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C208" s="9"/>
+        <v>271</v>
+      </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>308</v>
+      <c r="A209" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="C209" s="9"/>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2" t="s">
-        <v>513</v>
+        <v>582</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>512</v>
+        <v>583</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="5" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C211" s="9"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>313</v>
+      <c r="A212" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>316</v>
+      <c r="A213" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="5" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>318</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C214" s="9"/>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="A215" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="17.25">
       <c r="A216" s="5" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C216" s="9"/>
+        <v>280</v>
+      </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>322</v>
+      <c r="A217" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C218" s="9"/>
+        <v>387</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C219" s="9"/>
+      <c r="A219" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C220" s="9"/>
+      <c r="A220" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C221" s="9"/>
+      <c r="A221" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>332</v>
+      <c r="A222" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="C222" s="9"/>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C223" s="9"/>
+      <c r="A223" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>336</v>
+      <c r="A224" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C224" s="9"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>505</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C225" s="9"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>424</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C226" s="9"/>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>338</v>
-      </c>
+      <c r="A227" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C227" s="9"/>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>341</v>
-      </c>
+      <c r="A228" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C228" s="9"/>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>344</v>
-      </c>
+      <c r="A229" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C229" s="9"/>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="5" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>346</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C230" s="9"/>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>457</v>
-      </c>
+      <c r="A231" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C231" s="9"/>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>366</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C233" s="9"/>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C234" s="10" t="s">
-        <v>369</v>
+        <v>299</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>369</v>
+        <v>301</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>380</v>
-      </c>
+      <c r="A236" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C236" s="9"/>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>375</v>
+        <v>451</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>376</v>
+        <v>452</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>373</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C238" s="9"/>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>382</v>
-      </c>
+      <c r="A239" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C239" s="9"/>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>191</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C240" s="9"/>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B241" s="10" t="s">
-        <v>455</v>
+      <c r="A241" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C242" s="9"/>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C248" s="9"/>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C251" s="9"/>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C252" s="9"/>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C253" s="9"/>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C254" s="9"/>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C255" s="9"/>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C256" s="9"/>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C257" s="9"/>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B277" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C242" s="9"/>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="B243" s="12" t="s">
-        <v>526</v>
-      </c>
+      <c r="C277" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C242">
-    <sortCondition ref="A2:A242"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C277">
+    <sortCondition ref="A2:A277"/>
   </sortState>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/游戏名称对照表.xlsx
+++ b/游戏名称对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\坚果云\CRPG-Book-Chinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A41DC47-18B1-437C-9878-F129E7978AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6555FE9F-ED66-42FC-9BEA-E3186EBA7C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="6450" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="608">
   <si>
     <t>原名</t>
   </si>
@@ -1893,6 +1893,33 @@
   </si>
   <si>
     <t>刺猬索尼克</t>
+  </si>
+  <si>
+    <t>Ultima V: Lazarus</t>
+  </si>
+  <si>
+    <t>创世纪 5：拉撒路</t>
+  </si>
+  <si>
+    <t>粉丝制，《创世纪 5》的重制版，基于《地牢围攻》引擎</t>
+  </si>
+  <si>
+    <t>Tunnels &amp; Trolls: Crusaders of Khazan</t>
+  </si>
+  <si>
+    <t>隧道与巨魔：哈赞的十字军</t>
+  </si>
+  <si>
+    <t>Circuit’s Edge</t>
+  </si>
+  <si>
+    <t>电路边缘</t>
+  </si>
+  <si>
+    <t>J.R.R. Tolkien’s The Lord of the Rings, Vol. I</t>
+  </si>
+  <si>
+    <t>指环王 1</t>
   </si>
 </sst>
 </file>
@@ -2293,11 +2320,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C277"/>
+  <dimension ref="A1:C281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A272" sqref="A272"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A281" sqref="A281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2682,2126 +2709,2164 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>535</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="9"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="5" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="6" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="6" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>360</v>
+        <v>95</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="5" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="14" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B66" s="10" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C73" s="9"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C74" s="9"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="5" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C77" s="9"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>556</v>
-      </c>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C79" s="9"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="14" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B83" s="10" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C86" s="9"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="9"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C88" s="9"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="5" t="s">
+      <c r="C89" s="9"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C89" s="9"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="14" t="s">
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B91" s="10" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C92" s="9"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C93" s="9"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" s="9"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B95" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C94" s="9"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>450</v>
-      </c>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>517</v>
+        <v>449</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>519</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>590</v>
+        <v>517</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>591</v>
+        <v>518</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C99" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="5" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C100" s="9" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>459</v>
+        <v>465</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>355</v>
+        <v>458</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>356</v>
+        <v>459</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C103" s="9"/>
+        <v>355</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" s="9"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>488</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C107" s="9"/>
+        <v>148</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C109" s="9"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C108" s="9"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>571</v>
-      </c>
+      <c r="C110" s="9"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C113" s="10" t="s">
         <v>476</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C115" s="9"/>
+      <c r="A115" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>358</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117" s="9"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>566</v>
+      <c r="A118" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C120" s="9"/>
+      <c r="A120" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>485</v>
+        <v>400</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>486</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>549</v>
-      </c>
+      <c r="A122" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" s="9"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>524</v>
+        <v>486</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="5" t="s">
+    <row r="127" spans="1:3">
+      <c r="A127" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B127" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="1:3" ht="17.25">
-      <c r="A127" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="C127" s="9"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C128" s="9"/>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>501</v>
-      </c>
+    <row r="129" spans="1:3" ht="17.25">
+      <c r="A129" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C129" s="9"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>179</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C130" s="9"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C131" s="9"/>
+      <c r="A131" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C132" s="9"/>
+        <v>178</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B135" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C135" s="9" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C135" s="9"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B138" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C138" s="9" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C139" s="9"/>
+        <v>584</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>512</v>
+      <c r="A140" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>521</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C141" s="9"/>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C142" s="9"/>
+      <c r="A142" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="2" t="s">
+    <row r="146" spans="1:3">
+      <c r="A146" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="C146" s="10" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>179</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C147" s="9"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B151" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C151" s="9"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C152" s="9"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B155" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="C155" s="9"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C156" s="9"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C157" s="9"/>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>407</v>
-      </c>
+      <c r="A158" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C158" s="9"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C159" s="9"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>179</v>
+        <v>407</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>399</v>
-      </c>
+      <c r="A161" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C161" s="9"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2" t="s">
-        <v>588</v>
+        <v>428</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>589</v>
+        <v>429</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2" t="s">
-        <v>467</v>
+        <v>397</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>468</v>
+        <v>398</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="5" t="s">
+    <row r="167" spans="1:3">
+      <c r="A167" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B167" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C167" s="9" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="5" t="s">
+    <row r="168" spans="1:3">
+      <c r="A168" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B168" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C166" s="9" t="s">
+      <c r="C168" s="9" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="2" t="s">
+    <row r="169" spans="1:3">
+      <c r="A169" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B169" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="C169" s="9"/>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>235</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C171" s="9"/>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>237</v>
+      <c r="A172" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B175" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C175" s="9"/>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>436</v>
+        <v>409</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="14" t="s">
-        <v>563</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>564</v>
-      </c>
+      <c r="A177" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C177" s="9"/>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>386</v>
+      <c r="A179" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2" t="s">
-        <v>515</v>
+        <v>383</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>512</v>
+        <v>384</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>598</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C184" s="9"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C185" s="9"/>
+        <v>245</v>
+      </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>499</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C186" s="9"/>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C187" s="9"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B189" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="14" t="s">
+    <row r="190" spans="1:3">
+      <c r="A190" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B190" s="10" t="s">
         <v>577</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="5" t="s">
+    <row r="194" spans="1:3">
+      <c r="A194" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B194" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="5" t="s">
+    <row r="195" spans="1:3">
+      <c r="A195" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B195" s="4" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>538</v>
+        <v>393</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>539</v>
+        <v>394</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="13" t="s">
+    <row r="202" spans="1:3">
+      <c r="A202" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B202" s="10" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="8" t="s">
+    <row r="203" spans="1:3">
+      <c r="A203" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="2" t="s">
+    <row r="204" spans="1:3">
+      <c r="A204" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B204" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="5" t="s">
+    <row r="205" spans="1:3">
+      <c r="A205" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B205" s="4" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>269</v>
+      <c r="A207" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C209" s="9"/>
+        <v>269</v>
+      </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>583</v>
+      <c r="A210" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C211" s="9"/>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="2" t="s">
+    <row r="215" spans="1:3">
+      <c r="A215" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="5" t="s">
+    <row r="216" spans="1:3">
+      <c r="A216" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B216" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C214" s="9"/>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="5" t="s">
+      <c r="C216" s="9"/>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B217" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C215" s="9" t="s">
+      <c r="C217" s="9" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="17.25">
-      <c r="A216" s="5" t="s">
+    <row r="218" spans="1:3" ht="17.25">
+      <c r="A218" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B218" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="2" t="s">
+    <row r="219" spans="1:3">
+      <c r="A219" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C217" s="10" t="s">
+      <c r="C219" s="10" t="s">
         <v>491</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>441</v>
+        <v>387</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>442</v>
+        <v>388</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="2" t="s">
-        <v>542</v>
+      <c r="A221" s="7" t="s">
+        <v>528</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C222" s="9"/>
+        <v>441</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>163</v>
+        <v>282</v>
       </c>
       <c r="C224" s="9"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C225" s="9"/>
+        <v>479</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
-        <v>437</v>
+        <v>283</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>438</v>
+        <v>163</v>
       </c>
       <c r="C226" s="9"/>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2" t="s">
-        <v>284</v>
+        <v>439</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>285</v>
+        <v>440</v>
       </c>
       <c r="C227" s="9"/>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C228" s="9"/>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C229" s="9"/>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B230" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C228" s="9"/>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="5" t="s">
+      <c r="C230" s="9"/>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B231" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C229" s="9"/>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="5" t="s">
+      <c r="C231" s="9"/>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B232" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C230" s="9"/>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C231" s="9"/>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C232" s="9" t="s">
-        <v>296</v>
-      </c>
+      <c r="C232" s="9"/>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C233" s="9"/>
+        <v>602</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="2" t="s">
-        <v>299</v>
+      <c r="A234" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>300</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C234" s="9"/>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>497</v>
+        <v>296</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>304</v>
+      <c r="A236" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="C236" s="9"/>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>453</v>
+        <v>299</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>445</v>
+        <v>301</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C238" s="9"/>
+        <v>302</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C239" s="9"/>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C240" s="9"/>
+        <v>451</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>513</v>
+        <v>599</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>514</v>
+        <v>600</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>512</v>
+        <v>601</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>310</v>
+      <c r="A242" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>446</v>
       </c>
       <c r="C242" s="9"/>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C243" s="9" t="s">
-        <v>313</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C243" s="9"/>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C244" s="9" t="s">
-        <v>316</v>
-      </c>
+      <c r="A244" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C244" s="9"/>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="B245" s="10" t="s">
-        <v>562</v>
+      <c r="A245" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="5" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>318</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C246" s="9"/>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>421</v>
+      <c r="A247" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C248" s="9"/>
+        <v>315</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>322</v>
+      <c r="A249" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="B250" s="10" t="s">
-        <v>575</v>
+      <c r="A250" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C251" s="9"/>
+        <v>420</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>326</v>
+      <c r="A252" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="C252" s="9"/>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C253" s="9"/>
+        <v>322</v>
+      </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C254" s="9"/>
+      <c r="A254" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>332</v>
+      <c r="A255" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="C255" s="9"/>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>334</v>
+      <c r="A256" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="C256" s="9"/>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C257" s="9"/>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>505</v>
-      </c>
+      <c r="A258" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C258" s="9"/>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>424</v>
-      </c>
+      <c r="A259" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C259" s="9"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>338</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C260" s="9"/>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C261" s="9" t="s">
-        <v>341</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C261" s="9"/>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>344</v>
+        <v>504</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>532</v>
+        <v>423</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>533</v>
+        <v>424</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>457</v>
+      <c r="A265" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="B266" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="C266" s="10" t="s">
-        <v>569</v>
+      <c r="A266" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>362</v>
+        <v>532</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C267" s="10" t="s">
-        <v>364</v>
+        <v>533</v>
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>366</v>
+      <c r="A268" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>371</v>
+        <v>456</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>369</v>
+        <v>457</v>
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>368</v>
+      <c r="A270" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>369</v>
+        <v>569</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>380</v>
+        <v>363</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C278" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B279" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C275" s="9" t="s">
+      <c r="C279" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="11" t="s">
+    <row r="280" spans="1:3">
+      <c r="A280" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="B276" s="10" t="s">
+      <c r="B280" s="10" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="5" t="s">
+    <row r="281" spans="1:3">
+      <c r="A281" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="B281" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C277" s="9"/>
+      <c r="C281" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C277">
-    <sortCondition ref="A2:A277"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C281">
+    <sortCondition ref="A2:A281"/>
   </sortState>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
